--- a/l_products.xlsx
+++ b/l_products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01 USERS\RAJWINDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01 USERS\SIMAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D565FB-13AD-46FF-9920-62B2C67E58CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACBF16-2B69-4004-87AE-E4E00F492FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{27D0E474-A8AA-44EC-83EC-2DE26EA61828}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{515ADE29-0589-42A5-8948-64F4F872024C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="568">
   <si>
     <t>Name</t>
   </si>
@@ -52,142 +52,1693 @@
     <t>image</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/xTSY5TCJ/Whats-App-Image-2025-08-11-at-15-10-59.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/HWMdb7p1/Whats-App-Image-2025-08-12-at-16-27-18.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/Y957JtzP/Whats-App-Image-2025-08-12-at-16-27-20.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/L5jSSGy8/Whats-App-Image-2025-08-12-at-16-34-19.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/kgJCr1W7/Whats-App-Image-2025-08-12-at-17-18-02.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/vZ0sGrvf/Whats-App-Image-2025-08-12-at-17-19-28.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/5tGWCfTt/Whats-App-Image-2025-08-19-at-11-23-40.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/xTRrPvhh/Whats-App-Image-2025-08-19-at-11-36-41.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/135k7gZt/Whats-App-Image-2025-08-23-at-11-58-30.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/VkG3xYYF/Whats-App-Image-2025-08-23-at-11-58-32.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/cJvVZVCG/Whats-App-Image-2025-08-23-at-21-24-45.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/fb11bBSt/Whats-App-Image-2025-08-23-at-22-02-12.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/prH7frZP/Whats-App-Image-2025-08-25-at-17-08-13.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/yd9t3c0f/Whats-App-Image-2025-08-25-at-17-08-13-2.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/J7NS13r0/Whats-App-Image-2025-08-25-at-17-08-14.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/qvRFX986/Whats-App-Image-2025-08-30-at-13-37-51-1.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/q76ZWyDk/Whats-App-Image-2025-08-30-at-13-37-51-2.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/Rh4s38SF/Whats-App-Image-2025-08-30-at-13-37-52.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/mDQpgRGJ/Whats-App-Image-2025-08-30-at-13-37-52-1.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/tT0mbJ8F/Whats-App-Image-2025-08-30-at-13-37-52-2.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/cChDfmCc/Whats-App-Image-2025-08-30-at-13-37-53.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/RCLbrMdn/Whats-App-Image-2025-08-30-at-13-39-26.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/gkctmftt/Whats-App-Image-2025-08-30-at-22-51-51.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTI CULTURE/A-5045 - M TO 2XL </t>
+    <t>https://i.postimg.cc/rskCQjx2/Whats-App-Image-2025-07-31-at-10-26-59.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/prJQ7jJh/Whats-App-Image-2025-07-31-at-10-26-59-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zDCkVmYz/Whats-App-Image-2025-07-31-at-10-26-59-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BvPT3kCG/Whats-App-Image-2025-07-31-at-10-27-00.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/X7nk52nw/Whats-App-Image-2025-07-31-at-10-27-00-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zGBwtVbv/Whats-App-Image-2025-07-31-at-10-27-00-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Gm5FZdGQ/Whats-App-Image-2025-07-31-at-10-27-00-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/C1yjx7vn/Whats-App-Image-2025-07-31-at-10-27-50.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/264nbWJc/Whats-App-Image-2025-07-31-at-10-27-50-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/MGBQNRW6/Whats-App-Image-2025-07-31-at-10-27-51.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SRkCWsby/Whats-App-Image-2025-07-31-at-10-27-51-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zv7WprqT/Whats-App-Image-2025-07-31-at-10-27-51-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mZyQTQ7h/Whats-App-Image-2025-07-31-at-10-27-51-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/kXMWGBys/Whats-App-Image-2025-07-31-at-10-27-51-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3JLmvYST/Whats-App-Image-2025-07-31-at-10-27-51-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Z5C3P22y/Whats-App-Image-2025-07-31-at-10-27-51-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/9QK9L1Hg/Whats-App-Image-2025-07-31-at-10-27-51-7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pTtFHTTD/Whats-App-Image-2025-07-31-at-10-27-51-8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wvH7rGf2/Whats-App-Image-2025-07-31-at-10-37-08.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XJcy7bGt/Whats-App-Image-2025-07-31-at-10-37-08-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/C5hnRQb5/Whats-App-Image-2025-07-31-at-10-37-08-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/x86JM3PR/Whats-App-Image-2025-07-31-at-10-37-08-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3r1Ds3Hv/Whats-App-Image-2025-07-31-at-10-37-08-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/4N3hZjJF/Whats-App-Image-2025-07-31-at-10-37-08-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dVb721Gz/Whats-App-Image-2025-07-31-at-10-37-08-8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KYt1J2N4/Whats-App-Image-2025-07-31-at-10-37-08-9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1tHf1rbQ/Whats-App-Image-2025-07-31-at-10-37-09-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/nLKLq1FD/Whats-App-Image-2025-07-31-at-10-37-09-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ydV8jSxr/Whats-App-Image-2025-07-31-at-10-37-09-11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/NMpfzfrG/Whats-App-Image-2025-07-31-at-10-37-09-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1XX5hhpG/Whats-App-Image-2025-07-31-at-10-37-09-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/d3fQJHBz/Whats-App-Image-2025-07-31-at-10-37-09-14.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/PfV5bJj2/Whats-App-Image-2025-07-31-at-10-37-09-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zXLXxND5/Whats-App-Image-2025-07-31-at-10-37-09-16.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/P5YfkM8R/Whats-App-Image-2025-07-31-at-10-37-09-18.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/j2SCxJrJ/Whats-App-Image-2025-07-31-at-10-37-09-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/NMJBxJW5/Whats-App-Image-2025-07-31-at-10-37-09-26.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/PJChVbjK/Whats-App-Image-2025-07-31-at-10-37-09-28.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/0jXjb28X/Whats-App-Image-2025-07-31-at-10-37-09-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/c480QcTL/Whats-App-Image-2025-07-31-at-10-37-09-30.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/y6G7gGmG/Whats-App-Image-2025-07-31-at-10-37-09-31.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XNsp2xwK/Whats-App-Image-2025-07-31-at-10-37-09-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/yYWW29PM/Whats-App-Image-2025-07-31-at-10-37-09-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GhN9R2gH/Whats-App-Image-2025-07-31-at-10-37-09-7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zfYBLQrN/Whats-App-Image-2025-07-31-at-10-37-09-8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gr99Mf4k/Whats-App-Image-2025-07-31-at-10-37-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KYQ2ZpcJ/Whats-App-Image-2025-07-31-at-10-37-10-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/yddzWhkB/Whats-App-Image-2025-07-31-at-10-37-10-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/50RWzHCz/Whats-App-Image-2025-07-31-at-10-37-10-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/6pJwzG1L/Whats-App-Image-2025-07-31-at-10-37-10-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GpbRnnR4/Whats-App-Image-2025-07-31-at-10-37-10-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gkRrYpCs/Whats-App-Image-2025-07-31-at-10-39-24.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/PJvsQtWR/Whats-App-Image-2025-07-31-at-10-39-24-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/8k7j0Mwq/Whats-App-Image-2025-07-31-at-10-39-24-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/kMLB3GpD/Whats-App-Image-2025-07-31-at-10-39-24-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/d1kw4mv6/Whats-App-Image-2025-07-31-at-10-45-48.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/nhJrr5ZJ/Whats-App-Image-2025-07-31-at-10-45-48-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dt8QbBCS/Whats-App-Image-2025-07-31-at-10-45-48-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XY4N4CcN/Whats-App-Image-2025-07-31-at-10-45-48-11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/YCRr9Cb6/Whats-App-Image-2025-07-31-at-10-45-48-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wBB6sYGS/Whats-App-Image-2025-07-31-at-10-45-48-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/cJ5dR5q6/Whats-App-Image-2025-07-31-at-10-45-48-14.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/7Zn62VYT/Whats-App-Image-2025-07-31-at-10-45-48-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1tf5b10p/Whats-App-Image-2025-07-31-at-10-45-48-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/DzfzdX8p/Whats-App-Image-2025-07-31-at-10-45-48-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xds1s1mf/Whats-App-Image-2025-07-31-at-10-45-48-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/G2VhCgz6/Whats-App-Image-2025-07-31-at-10-45-48-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sxWfDPNx/Whats-App-Image-2025-07-31-at-10-45-48-7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/9XwQpVQ2/Whats-App-Image-2025-07-31-at-10-45-48-8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/MKkK34nQ/Whats-App-Image-2025-07-31-at-10-45-48-9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/QxMSP6vj/Whats-App-Image-2025-07-31-at-10-45-49.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Kz6FVk82/Whats-App-Image-2025-07-31-at-10-45-49-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/W3kcMN6f/Whats-App-Image-2025-07-31-at-10-45-49-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gjbFsCgc/Whats-App-Image-2025-07-31-at-10-45-49-11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/nVqtrLLX/Whats-App-Image-2025-07-31-at-10-45-49-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/WbjckPDX/Whats-App-Image-2025-07-31-at-10-45-49-14.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/8PHQdnMD/Whats-App-Image-2025-07-31-at-10-45-49-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/DwwVxdPG/Whats-App-Image-2025-07-31-at-10-45-49-16.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Z57G2BwM/Whats-App-Image-2025-07-31-at-10-45-49-17.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Bvjr0SyQ/Whats-App-Image-2025-07-31-at-10-45-49-18.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/6QFD5sJV/Whats-App-Image-2025-07-31-at-10-45-49-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HnbHCYr7/Whats-App-Image-2025-07-31-at-10-45-49-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qqTSy87z/Whats-App-Image-2025-07-31-at-10-45-49-21.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vTtjzc1X/Whats-App-Image-2025-07-31-at-10-45-49-22.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/jqHGKk8N/Whats-App-Image-2025-07-31-at-10-45-49-23.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sD3b298L/Whats-App-Image-2025-07-31-at-10-45-49-24.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/NfbS22vj/Whats-App-Image-2025-07-31-at-10-45-49-25.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sgNLwFXF/Whats-App-Image-2025-07-31-at-10-45-49-26.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/NMhzv1mp/Whats-App-Image-2025-07-31-at-10-45-49-29.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y2FtF3dq/Whats-App-Image-2025-07-31-at-10-45-49-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/6qcjZgSm/Whats-App-Image-2025-07-31-at-10-45-49-31.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/5ybK6bPz/Whats-App-Image-2025-07-31-at-10-45-49-32.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FFVnwkRV/Whats-App-Image-2025-07-31-at-10-45-49-33.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/CLM60MnT/Whats-App-Image-2025-07-31-at-10-45-49-34.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SNZ1x0cX/Whats-App-Image-2025-07-31-at-10-45-49-35.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Nj5JyNxd/Whats-App-Image-2025-07-31-at-10-45-49-36.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Bnkh2xY4/Whats-App-Image-2025-07-31-at-10-45-49-37.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mr9mjtJM/Whats-App-Image-2025-07-31-at-10-45-49-39.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3RHnc3Qq/Whats-App-Image-2025-07-31-at-10-45-49-40.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FRgDtw9H/Whats-App-Image-2025-07-31-at-10-45-49-41.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BbSNJN6c/Whats-App-Image-2025-07-31-at-10-45-49-42.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/bYg3mXC6/Whats-App-Image-2025-07-31-at-10-45-49-44.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/MKbxPGkC/Whats-App-Image-2025-07-31-at-10-45-49-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/g2zpfPmn/Whats-App-Image-2025-07-31-at-10-45-49-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pLsvv1Lk/Whats-App-Image-2025-07-31-at-10-45-49-7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/jjCbSQWT/Whats-App-Image-2025-07-31-at-10-45-49-8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/VNTcrrMC/Whats-App-Image-2025-07-31-at-10-45-49-9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vHSXdrdf/Whats-App-Image-2025-07-31-at-10-45-50-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Fs1gGYJR/Whats-App-Image-2025-07-31-at-10-45-50-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mgH3fKjW/Whats-App-Image-2025-07-31-at-10-45-50-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/VkxRJzvN/Whats-App-Image-2025-07-31-at-10-45-50-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xCY3PgKD/Whats-App-Image-2025-07-31-at-10-45-50-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gj2yCJSg/Whats-App-Image-2025-07-31-at-10-45-50-7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZnsP4SX4/Whats-App-Image-2025-07-31-at-10-45-50-8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/MZ9my7HN/Whats-App-Image-2025-07-31-at-10-45-50-9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zB0KFNzK/Whats-App-Image-2025-07-31-at-10-47-03.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/TPjrhmBk/Whats-App-Image-2025-07-31-at-10-47-03-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/d1qGC3YJ/Whats-App-Image-2025-07-31-at-10-47-03-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/0jjmt4j3/Whats-App-Image-2025-07-31-at-10-47-04-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/WzyZx7J4/Whats-App-Image-2025-07-31-at-10-47-04-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/TPknrGYm/Whats-App-Image-2025-07-31-at-10-50-09.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/WpY0DsfP/Whats-App-Image-2025-07-31-at-10-50-09-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HnFJ6sfc/Whats-App-Image-2025-07-31-at-10-50-09-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gc76zNnz/Whats-App-Image-2025-07-31-at-10-50-09-11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/c48trwnQ/Whats-App-Image-2025-07-31-at-10-50-09-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pLbh8rf3/Whats-App-Image-2025-07-31-at-10-50-09-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fbMV2PgK/Whats-App-Image-2025-07-31-at-10-50-09-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/q7Qz9GPd/Whats-App-Image-2025-07-31-at-10-50-09-16.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fLLJZ9sS/Whats-App-Image-2025-07-31-at-10-50-09-17.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/k4pD5gM1/Whats-App-Image-2025-07-31-at-10-50-09-18.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gjLjLbnY/Whats-App-Image-2025-07-31-at-10-50-09-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/QxB11vRK/Whats-App-Image-2025-07-31-at-10-50-09-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/7bv6gt2S/Whats-App-Image-2025-07-31-at-10-50-09-20.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/nVXGGsmL/Whats-App-Image-2025-07-31-at-10-50-09-21.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Pf0z3tbQ/Whats-App-Image-2025-07-31-at-10-50-09-22.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/kX8NLkf3/Whats-App-Image-2025-07-31-at-10-50-09-23.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dVj2Vrb5/Whats-App-Image-2025-07-31-at-10-50-09-25.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/yN6FgWBs/Whats-App-Image-2025-07-31-at-10-50-09-26.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/YSxWt7mZ/Whats-App-Image-2025-07-31-at-10-50-09-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/cJW3qC6f/Whats-App-Image-2025-07-31-at-10-50-09-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FzYdbJnX/Whats-App-Image-2025-07-31-at-10-50-09-9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RFNKd8NY/Whats-App-Image-2025-07-31-at-10-50-10-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/C1Bnkq2T/Whats-App-Image-2025-07-31-at-10-50-10-11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sx5B0RyT/Whats-App-Image-2025-07-31-at-10-50-10-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3rGDw2p2/Whats-App-Image-2025-07-31-at-10-50-10-14.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BQGPPtck/Whats-App-Image-2025-07-31-at-10-50-10-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/DydJrFxZ/Whats-App-Image-2025-07-31-at-10-50-10-16.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/7ZHCXcRN/Whats-App-Image-2025-07-31-at-10-50-10-17.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/43nYRcs7/Whats-App-Image-2025-07-31-at-10-50-10-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/63gRm0Zp/Whats-App-Image-2025-07-31-at-10-50-10-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GpNHLpmM/Whats-App-Image-2025-07-31-at-10-50-10-20.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fyQydgXm/Whats-App-Image-2025-07-31-at-10-50-10-24.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/5y50SqqG/Whats-App-Image-2025-07-31-at-10-50-10-25.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/m2Rh2JTG/Whats-App-Image-2025-07-31-at-10-50-10-28.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/J4q0yxhH/Whats-App-Image-2025-07-31-at-10-50-10-29.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/PJDZswbz/Whats-App-Image-2025-07-31-at-10-50-10-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/t4vgkgWX/Whats-App-Image-2025-07-31-at-10-50-10-30.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/d07VxKjG/Whats-App-Image-2025-07-31-at-10-50-10-33.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/2yYjyLRx/Whats-App-Image-2025-07-31-at-10-50-10-34.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/NMmfQ7VM/Whats-App-Image-2025-07-31-at-10-50-10-35.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HW0sKzXv/Whats-App-Image-2025-07-31-at-10-50-10-37.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vH388mPW/Whats-App-Image-2025-07-31-at-10-50-10-39.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mZ17Fvxz/Whats-App-Image-2025-07-31-at-10-50-10-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/x18fXS7B/Whats-App-Image-2025-07-31-at-10-50-10-40.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/DZknp4ZK/Whats-App-Image-2025-07-31-at-10-50-10-43.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ydmBM6g3/Whats-App-Image-2025-07-31-at-10-50-10-44.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XqxWv2gV/Whats-App-Image-2025-07-31-at-10-50-10-45.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/jqhtv5YG/Whats-App-Image-2025-07-31-at-10-50-10-47.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/J44mFL1t/Whats-App-Image-2025-07-31-at-10-50-10-48.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sD6ydNXm/Whats-App-Image-2025-07-31-at-10-50-10-49.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RVrK1g9P/Whats-App-Image-2025-07-31-at-10-50-10-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/T3B6h5nW/Whats-App-Image-2025-07-31-at-10-50-10-51.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/CLjDcbxw/Whats-App-Image-2025-07-31-at-10-50-10-7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qvwKT0KY/Whats-App-Image-2025-07-31-at-10-50-10-8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Lss147Bs/Whats-App-Image-2025-07-31-at-10-50-10-9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/bNBXFSCF/Whats-App-Image-2025-07-31-at-10-50-11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/50SdPPTw/Whats-App-Image-2025-07-31-at-10-50-11-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/85Sgm8Kp/Whats-App-Image-2025-07-31-at-10-50-11-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Gt306Fn6/Whats-App-Image-2025-07-31-at-10-50-11-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/C5vy0RF5/Whats-App-Image-2025-07-31-at-10-50-11-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/286Rw7wZ/Whats-App-Image-2025-07-31-at-10-50-11-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/QNSZ1ypD/Whats-App-Image-2025-07-31-at-10-50-11-6.jpg</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-2700 -L TO 4XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>LONG T-SHIRT</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-2700</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-2800 -XL TO 3XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-2800</t>
+  </si>
+  <si>
+    <t>FLOURISR/A-2700 -L TO 4XL -FLEECE</t>
+  </si>
+  <si>
+    <t>FLOURISR/A-2800 -XL TO 3XL -FLEECE</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3121 -M TO 3XL -INSIDE FURR</t>
+  </si>
+  <si>
+    <t>WIND-CHEATER</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3121</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3120 -M TO 3XL -INSIDE FURR</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3120</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3117 -M TO 3XL -INSIDE FURR</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3117</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3111 -M TO 3XL -INSIDE FURR</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3111</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-31119-M TO 3XL -INSIDE FURR</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3119</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3102-M TO 3XL -INSIDE FURR</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3102</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3101 -M TO 3XL -INSIDE FURR</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3101</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3125 -M TO 3XL - BUBBLE CRUSH</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3125</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3126 -M TO 3XL - BUBBLE CRUSH</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3126</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3101 -M TO 3XL - BUBBLE CRUSH</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3127 -M TO 3XL - BUBBLE CRUSH</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3127</t>
+  </si>
+  <si>
+    <t>NIGHT SUIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLAM FOX </t>
+  </si>
+  <si>
+    <t>GLAM FOX - M TO XL -VELVET</t>
+  </si>
+  <si>
+    <t>TOP TEN/A-9503 -XL TO 3XL -SWEATER KNIT</t>
+  </si>
+  <si>
+    <t>TRACK SUIT</t>
+  </si>
+  <si>
+    <t>TOP TEN/A-9503</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0074 -M TO 2XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0074</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0079 -M TO 2XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0079</t>
+  </si>
+  <si>
+    <t>TOP TEN/A-9504 -XL TO 3XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>CO-ORD SET</t>
+  </si>
+  <si>
+    <t>TOP TEN/A-9504</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8753 -M TO 2XL -3THREAD COTTON</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8753</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8751 -M TO 2XL -3THREAD COTTON</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URBAN GIRL/A-808 -M TO XL -VELVET </t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URBAN GIRL/A-822 -M TO XL -VELVET </t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-822</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0069 -M TO 2XL</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0069</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0032 -M TO 2XL</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0032</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0082 -M TO 2XL</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0082</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0031 -M TO 2XL</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0031</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1400 -L TO 4 XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1400</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-811 -M TO XXL -COD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-811</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0084 -M TO XL -VELVET</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0084</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0042 -M TO XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0042</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-8100 -M TO 2XL -3THREAD FLEECE</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8100</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0044 -M TO XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0044</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE -M TO XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-8100 - M TO 2XL -3THREAD FLEECE</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-8100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-0033 -M TO 3XL </t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-0035 -M TO 3XL </t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-0078 -M TO 2XL - IMPORTED </t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-0081 -M TO 2XL - IMPORTED </t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-0034 - M TO 3XL </t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0034</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8791 - M TO 3XL -VELVET</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8791</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3691 - M TO 3XL -VELVET</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-0043 - M TO 3XL </t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHNAGER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGER </t>
+  </si>
+  <si>
+    <t>JACKET</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1806 -M TO XXL -REBATE FARR</t>
+  </si>
+  <si>
+    <t>SWEAT SHIRT</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1806</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1825 -M TO XXL -APD</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1825</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1717 -M TO XXL -APD SHANEEL</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1717</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1709 -M TO XXL - REBATE FARR</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1709</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1836 -M TO XXL - APD FARR</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1836</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1705 -M TO XXL - REBATE FARR</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1705</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1733 -M TO XXL -APD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1825 -M TO XXL -APD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1733</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1758 -M TO XXL -APD SHANEEL</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URBAN GIRL/A-1824 -M TO XXL -APD </t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1824</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1705 -M TO XXL - RABBIT FUR</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1714 -M TO XXL - REBATE FUR</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1714</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1704 -M TO XXL - REBATE FARR</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1704</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1732 -M TO XXL -APD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1732</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1806 -M TO XXL -APD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1721 -M TO XXL - REBATE FARR</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1721</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5200 -M TO 2XL -3THREAD FLEECE</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-5200</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1823 - M TO XXL -FARR BONDING</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5100 - M TO XXL -3THREAD</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5200 - M TO XXL -3THREAD</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5200</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1823</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5100</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4200 - M TO XXL -3THREAD</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4200</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4300 - M TO XXL -3THREAD</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4300</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1790 -M TO XL -VELVET</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4200 -M TO 2XL -3THREAD</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1790</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4600 -M TO 2XL -3THREAD</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4600</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1805 -M TO XXL - REBATE FURR</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1805</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4200 -M TO XXL - 3THREAD</t>
+  </si>
+  <si>
+    <t>MISS BELLA/A-105 -VELVET</t>
+  </si>
+  <si>
+    <t>MISS BELLA</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7713 -M TO XL -VELVET</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7713</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1732 -M TO 2XL -VELVET</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-5042 -M TO 2XL -HEAVY GSM</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-5042</t>
+  </si>
+  <si>
+    <t>MISS BELLA/A-1118 -M TO 2XL -3THREAD</t>
+  </si>
+  <si>
+    <t>MISS BELLA/A-1118</t>
+  </si>
+  <si>
+    <t>ANTI CUTLURE/A-5027 - M TOXL -HEAVY GSM</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-5027</t>
+  </si>
+  <si>
+    <t>ANTI CUTLURE/A-5035 - M TOXL -HEAVY GSM</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-5035</t>
+  </si>
+  <si>
+    <t>MISS BELLA/A-1127-M TO 2XL -3THREAD</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-1127</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3672 -M TO XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3672</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3690 -M TO XL -VELVET</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-3107-M TO XL  </t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3107</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-4874 -M TO 2XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-4874</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1817 -M TO XXL- FAAR BONDING</t>
   </si>
   <si>
     <t>HOODIE</t>
   </si>
   <si>
-    <t xml:space="preserve">ANTI CULTURE/A-8712 - M TO 4XL </t>
-  </si>
-  <si>
-    <t>LOWER</t>
-  </si>
-  <si>
-    <t>ANTI CULTURE/A-8719 - M TO 3XL</t>
-  </si>
-  <si>
-    <t>ANTI CULTURE</t>
-  </si>
-  <si>
-    <t>ANTI CULTURE/A-8705 - M TO 2XL</t>
-  </si>
-  <si>
-    <t>ANTI CULTURE/A-8721 - M TO 2XL</t>
-  </si>
-  <si>
-    <t>ANTI CULTURE/A-8709 - M TO 2XL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLOURIST/A-1351A -L TO 2XL </t>
-  </si>
-  <si>
-    <t>NIGHT SUIT</t>
-  </si>
-  <si>
-    <t>FLOURIST</t>
-  </si>
-  <si>
-    <t>FLOURIST/A-1051A - M TO 3XL</t>
-  </si>
-  <si>
-    <t>ANTI CULTURE/A-3128 - M TO XL</t>
-  </si>
-  <si>
-    <t>ANTI CULTURE/A-3114 - M TO XL</t>
-  </si>
-  <si>
-    <t>ANTI CULTURE/A-5047 - M TO 2XL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTI CULTURE/A-4001 - M TO 4XL </t>
+    <t>URBAN GIRL/A-1817</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7536 -M TO XXL -APD FARR</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7536</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1724 -M TO XXL - VELVET</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1724</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1712-M TO XXL - APD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1712</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7524 -M TO XXL - SHERPA</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7524</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-5024 -M TO 2XL -HEAVY GSM</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-5024</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1825 -M TO 3XL - APD</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-1825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAE BE/A-9153 -M TO 3XL </t>
+  </si>
+  <si>
+    <t>BAE BE/A-9153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAE BE/A-9172 -M TO 2XL </t>
+  </si>
+  <si>
+    <t>BAE BE/A-9172</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-4908 -M TO 2XL -3THREAD</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-4908</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-4907 -M TO 2XL -3THREAD</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-4907</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3671 -M TO XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3671</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1807 -M TO 3XL -COD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1807</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1058 -S TO XXL -APD BONDING</t>
   </si>
   <si>
     <t>SHACKET</t>
   </si>
   <si>
-    <t>ANTI CULTURE/A-5052 - M TO 2XL</t>
-  </si>
-  <si>
-    <t>SPOKY</t>
-  </si>
-  <si>
-    <t>CO-ORD SET</t>
-  </si>
-  <si>
-    <t>SPOKY - M TO XXL</t>
-  </si>
-  <si>
-    <t>ANTI CULTURE - M TO 2XL</t>
+    <t>URBAN GIRL/A-1058</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1053 -M TO XXL -IMPORTED</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1053</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1056 -S TO XXL -APD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1056</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1053 -M TO XXL -APD BONDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1031 -M TO 2XL </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1230 -M TO 3XL </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1131 -M TO 3XL </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1030 -M TO 3XL </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLAM FOX - M TO XL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1131 -M TO 4XL </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-2203-M TO 2XL - RAYON</t>
+  </si>
+  <si>
+    <t>KURTI</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-2203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1030-M TO 3XL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-3731-M TO 2XL </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-3731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1031-M TO 2XL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1230-M TO 3XL </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1400-L TO 3XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1400 -L TO 3 XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>NIGHTSUIT</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1400 -L TO 3XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4700 -M TO 2XL -VELVET</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4700</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-3856 -L TO 3XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-3856</t>
+  </si>
+  <si>
+    <t>FLOURSIT/A-3856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1131-M TO 4XL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1037-M TO 3XL  </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-3856-M TO 3XL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1400-M TO 3XL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-6900-M TO-2XL  </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-6900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1400-L TO-3XL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-6900-L TO-2XL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-3731-M TO-2XL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1400-M TO-4XL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-3890-L TO-3XL  </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-3890</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-3890-L TO3XL</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5900-L TO3XL</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5900</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-3731-M TO 2XL</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5900 -L  TO 3XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-5900 </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5900 -L TO 3XL</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5950-M TO 2XL</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5950</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5900-L TO 2XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1400-L TO 3XL </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-5900-L TO 3XL</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1400-L TO 3XL</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-4700- MTO 2XL</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1037- MTO 3XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/90LtvvFb/Whats-App-Image-2025-07-31-at-17-44-48.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fLjvvVG6/Whats-App-Image-2025-07-31-at-17-44-48-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sfHWCP4T/Whats-App-Image-2025-07-31-at-17-44-49.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tCgzhC2M/Whats-App-Image-2025-07-31-at-17-44-49-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZnspfpVD/Whats-App-Image-2025-07-31-at-17-44-49-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Wp5GbcT6/Whats-App-Image-2025-07-31-at-17-44-49-11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/X7Xwr1vM/Whats-App-Image-2025-07-31-at-17-44-49-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GhNvGPB4/Whats-App-Image-2025-07-31-at-17-44-49-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/13qwHg6J/Whats-App-Image-2025-07-31-at-17-44-49-14.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vmw9SQtM/Whats-App-Image-2025-07-31-at-17-44-49-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/rpG4Bvf4/Whats-App-Image-2025-07-31-at-17-44-49-16.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/MTdQT12K/Whats-App-Image-2025-07-31-at-17-44-49-17.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/QtX7h0zy/Whats-App-Image-2025-07-31-at-17-44-49-18.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Rhhnnq41/Whats-App-Image-2025-07-31-at-17-44-49-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BZpgL1cF/Whats-App-Image-2025-07-31-at-17-44-49-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/X7DkxSP7/Whats-App-Image-2025-07-31-at-17-44-49-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/y8gXbpqh/Whats-App-Image-2025-07-31-at-17-44-49-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/T3zqMjGz/Whats-App-Image-2025-07-31-at-17-44-49-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Bv25q8nX/Whats-App-Image-2025-07-31-at-17-44-49-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RF97qMWG/Whats-App-Image-2025-07-31-at-17-44-49-7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/0QfpwLmv/Whats-App-Image-2025-07-31-at-17-44-49-8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y0CQfbfW/Whats-App-Image-2025-07-31-at-17-44-49-9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/rm3txMmv/Whats-App-Image-2025-07-31-at-17-44-50.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sDBhjBns/Whats-App-Image-2025-07-31-at-17-44-50-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xd98zqPk/Whats-App-Image-2025-07-31-at-17-44-50-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XJJvshm4/Whats-App-Image-2025-07-31-at-17-44-50-11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XqBYb5nP/Whats-App-Image-2025-07-31-at-17-44-50-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/QtydwmZ5/Whats-App-Image-2025-07-31-at-17-44-50-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Z0kKKqR5/Whats-App-Image-2025-07-31-at-17-44-50-14.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/59XB0k0h/Whats-App-Image-2025-07-31-at-17-44-50-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sfbpZ9Gv/Whats-App-Image-2025-07-31-at-17-44-50-16.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BQD25L2N/Whats-App-Image-2025-07-31-at-17-44-50-17.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Z5Spwbcm/Whats-App-Image-2025-07-31-at-17-44-50-18.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dVjdXbHy/Whats-App-Image-2025-07-31-at-17-44-50-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/jdGJLs9N/Whats-App-Image-2025-07-31-at-17-44-50-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/VNsMcKpH/Whats-App-Image-2025-07-31-at-17-44-50-20.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/MGsBZy8Z/Whats-App-Image-2025-07-31-at-17-44-50-21.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/0Qbwzb8Y/Whats-App-Image-2025-07-31-at-17-44-50-22.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/25xqcn5F/Whats-App-Image-2025-07-31-at-17-44-50-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Kzq1FFB1/Whats-App-Image-2025-07-31-at-17-44-50-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3RJkPW4M/Whats-App-Image-2025-07-31-at-17-44-50-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/PqHpQSd5/Whats-App-Image-2025-07-31-at-17-44-50-7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y0vhCVzb/Whats-App-Image-2025-07-31-at-17-44-50-8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/054zBk93/Whats-App-Image-2025-07-31-at-17-44-50-9.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERRY MOX/A-5100 - M TO XXL </t>
+  </si>
+  <si>
+    <t>GERRY MOX/A-5100</t>
+  </si>
+  <si>
+    <t>ANAM /A-3254  - WOOLEN</t>
+  </si>
+  <si>
+    <t>ANAM/A-3254</t>
+  </si>
+  <si>
+    <t>CARDIGAN</t>
+  </si>
+  <si>
+    <t>ANAM /A-35542 - WOOLEN</t>
+  </si>
+  <si>
+    <t>COAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECHARGE/A-1106 </t>
+  </si>
+  <si>
+    <t>RECHARGE/A-1106</t>
+  </si>
+  <si>
+    <t>RECHARGE/A-1103 -TWILL</t>
+  </si>
+  <si>
+    <t>RECHARGE/A-1103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIMSBY/A-9998 </t>
+  </si>
+  <si>
+    <t>GRIMSBY/A-9998</t>
+  </si>
+  <si>
+    <t>GRIMSBY/A-9999 -VELVET</t>
+  </si>
+  <si>
+    <t>GRIMSBY/A-9999</t>
+  </si>
+  <si>
+    <t>SPOKY/A-7407 -L TO XL -SAHNEEL</t>
+  </si>
+  <si>
+    <t>KURTI-SET</t>
+  </si>
+  <si>
+    <t>SPOKY/A-7407</t>
+  </si>
+  <si>
+    <t>SPOKY/A-7304 -L TO XL -SAHNEEL</t>
+  </si>
+  <si>
+    <t>SPOKY/A-7304</t>
+  </si>
+  <si>
+    <t>SPOKY/A-7204 -L TO XL -SHANEEL</t>
+  </si>
+  <si>
+    <t>SPOKY/A-7204</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-106  -IMPORTED</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-102 </t>
+  </si>
+  <si>
+    <t>FLOURIST/A-102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-3131 -M TO 2XL </t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3131</t>
+  </si>
+  <si>
+    <t>ANAM/A-3554 -WOOLEN</t>
+  </si>
+  <si>
+    <t>ANAM/A-3554</t>
+  </si>
+  <si>
+    <t>ANAM/A-3250 -WOOLEN</t>
+  </si>
+  <si>
+    <t>ANAM/A-3550</t>
+  </si>
+  <si>
+    <t>AARZOO/A-4250- WOOLEN</t>
+  </si>
+  <si>
+    <t>AARZOO/A-3557 -WOOLEN</t>
+  </si>
+  <si>
+    <t>AARZOO/A-8163 -WOOLEN</t>
+  </si>
+  <si>
+    <t>AARZOO/A-4250</t>
+  </si>
+  <si>
+    <t>AARZOO/A-3557</t>
+  </si>
+  <si>
+    <t>AARZOO/A-8163</t>
+  </si>
+  <si>
+    <t>ANAM/A-8250 -WOOLEN</t>
+  </si>
+  <si>
+    <t>ANAM/A-8250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEACHER/A-8164  </t>
+  </si>
+  <si>
+    <t>TEACHER/A-8164</t>
+  </si>
+  <si>
+    <t>CROWN/A-1114 -TWO TONE</t>
+  </si>
+  <si>
+    <t>CROWN/A-1114</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7749 -M TO XXL -APD FARR</t>
+  </si>
+  <si>
+    <t>LONG TUNIC</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7749</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7733 -M TO XXL -VELVET</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7733</t>
+  </si>
+  <si>
+    <t>SPOKY/A-7415 -SHANEEL</t>
+  </si>
+  <si>
+    <t>SPOKY/A-7415</t>
+  </si>
+  <si>
+    <t>SPOKY/A-5911 -SHANEEL</t>
+  </si>
+  <si>
+    <t>SPOKY/A-5911</t>
+  </si>
+  <si>
+    <t>SPOKY/A-5531  -SHANEEL</t>
+  </si>
+  <si>
+    <t>SPOKY/A-5531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URBAN GIRL/A-7742 </t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7742</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7739 -M TO XXL -APD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7739</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7736 -M TO XXL -APD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7736</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7702 -M TO XXL -APD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7702</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7742 -M TO XXL -APD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7702 -M TO XXL -APD LYCRA</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7754 -M TO XXL -APD LYCRA</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7754</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7737 -M TO XXL - VELVET RASING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-7737</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1375 -M TO XXL -VELVET  PLAN</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1375</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1384-M TO XXL -VELVET COD BONDING</t>
+  </si>
+  <si>
+    <t>URBAN GIRL/A-1384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URBAN GIRL/A-1705-M TO XXL -RABBIT FUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-8751-M TO 2XL -3THREAD </t>
+  </si>
+  <si>
+    <t>FASHION FLOW</t>
+  </si>
+  <si>
+    <t>FASHION FLO</t>
+  </si>
+  <si>
+    <t>SPOKY/A-5522</t>
+  </si>
+  <si>
+    <t>SPOKY/A-5538 -IMPORTED</t>
+  </si>
+  <si>
+    <t>SPOKY/A-5538</t>
   </si>
 </sst>
 </file>
@@ -558,18 +2109,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E255E38B-F6E9-4D2E-B55F-D73EE0FF690D}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE43F56-F1DF-4EC8-BFCF-B9051A250447}">
+  <dimension ref="A1:E227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="G29" activeCellId="2" sqref="C17 D19 G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" customWidth="1"/>
+    <col min="5" max="5" width="76.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -591,16 +2142,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="C2">
-        <v>677</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -608,16 +2159,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -625,16 +2176,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="C4">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -642,16 +2193,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="C5">
-        <v>581</v>
+        <v>350</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -659,16 +2210,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="C6">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -676,16 +2227,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -693,16 +2244,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="C8">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -710,16 +2261,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="C9">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -727,16 +2278,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="C10">
-        <v>690</v>
+        <v>655</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -744,16 +2295,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="C11">
-        <v>930</v>
+        <v>659</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -761,16 +2312,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="C12">
-        <v>680</v>
+        <v>713</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -778,16 +2329,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="C13">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
@@ -795,16 +2346,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="C14">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -812,16 +2363,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="C15">
-        <v>765</v>
+        <v>581</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -829,16 +2380,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="C16">
-        <v>765</v>
+        <v>731</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -846,16 +2397,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="C17">
-        <v>1190</v>
+        <v>689</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -863,16 +2414,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="C18">
-        <v>1190</v>
+        <v>581</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -880,16 +2431,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="C19">
-        <v>1190</v>
+        <v>689</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -897,16 +2448,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="C20">
-        <v>1190</v>
+        <v>850</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>218</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>23</v>
@@ -914,16 +2465,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="C21">
-        <v>1190</v>
+        <v>950</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
@@ -931,16 +2482,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="C22">
-        <v>1190</v>
+        <v>1349</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>25</v>
@@ -948,16 +2499,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="C23">
-        <v>1190</v>
+        <v>1433</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>26</v>
@@ -965,46 +2516,3699 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="C24">
-        <v>720</v>
+        <v>1170</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25">
+        <v>611</v>
+      </c>
+      <c r="D25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26">
+        <v>659</v>
+      </c>
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27">
+        <v>875</v>
+      </c>
+      <c r="D27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28">
+        <v>1097</v>
+      </c>
+      <c r="D28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29">
+        <v>851</v>
+      </c>
+      <c r="D29" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30">
+        <v>1139</v>
+      </c>
+      <c r="D30" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31">
+        <v>1439</v>
+      </c>
+      <c r="D31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32">
+        <v>1109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33">
+        <v>500</v>
+      </c>
+      <c r="D33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34">
+        <v>500</v>
+      </c>
+      <c r="D34" t="s">
+        <v>246</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35">
+        <v>500</v>
+      </c>
+      <c r="D35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36">
+        <v>1079</v>
+      </c>
+      <c r="D36" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37">
+        <v>1499</v>
+      </c>
+      <c r="D37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38">
+        <v>1535</v>
+      </c>
+      <c r="D38" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39">
+        <v>925</v>
+      </c>
+      <c r="D39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40">
+        <v>1559</v>
+      </c>
+      <c r="D40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41">
+        <v>950</v>
+      </c>
+      <c r="D41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42">
+        <v>925</v>
+      </c>
+      <c r="D42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43">
+        <v>1259</v>
+      </c>
+      <c r="D43" t="s">
+        <v>262</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44">
+        <v>1271</v>
+      </c>
+      <c r="D44" t="s">
+        <v>264</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45">
+        <v>1427</v>
+      </c>
+      <c r="D45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46">
+        <v>1079</v>
+      </c>
+      <c r="D46" t="s">
+        <v>268</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47">
+        <v>950</v>
+      </c>
+      <c r="D47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48">
+        <v>1199</v>
+      </c>
+      <c r="D48" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49">
+        <v>539</v>
+      </c>
+      <c r="D49" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50">
+        <v>599</v>
+      </c>
+      <c r="D50" t="s">
+        <v>274</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51">
+        <v>1421</v>
+      </c>
+      <c r="D51" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52">
+        <v>1079</v>
+      </c>
+      <c r="D52" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53">
+        <v>750</v>
+      </c>
+      <c r="D53" t="s">
+        <v>278</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54">
+        <v>850</v>
+      </c>
+      <c r="D54" t="s">
+        <v>278</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55">
+        <v>650</v>
+      </c>
+      <c r="D55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56">
+        <v>950</v>
+      </c>
+      <c r="D56" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57">
+        <v>659</v>
+      </c>
+      <c r="D57" t="s">
+        <v>281</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" t="s">
+        <v>282</v>
+      </c>
+      <c r="C58">
+        <v>497</v>
+      </c>
+      <c r="D58" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>287</v>
+      </c>
+      <c r="B59" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59">
+        <v>587</v>
+      </c>
+      <c r="D59" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C60">
+        <v>548</v>
+      </c>
+      <c r="D60" t="s">
+        <v>288</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>291</v>
+      </c>
+      <c r="B61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C61">
+        <v>653</v>
+      </c>
+      <c r="D61" t="s">
+        <v>290</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62">
+        <v>575</v>
+      </c>
+      <c r="D62" t="s">
+        <v>292</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63">
+        <v>719</v>
+      </c>
+      <c r="D63" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64">
+        <v>497</v>
+      </c>
+      <c r="D64" t="s">
+        <v>295</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65">
+        <v>617</v>
+      </c>
+      <c r="D65" t="s">
+        <v>297</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66">
+        <v>575</v>
+      </c>
+      <c r="D66" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67">
+        <v>575</v>
+      </c>
+      <c r="D67" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68">
+        <v>557</v>
+      </c>
+      <c r="D68" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>305</v>
+      </c>
+      <c r="B69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69">
+        <v>575</v>
+      </c>
+      <c r="D69" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" t="s">
+        <v>280</v>
+      </c>
+      <c r="C70">
+        <v>677</v>
+      </c>
+      <c r="D70" t="s">
+        <v>306</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71">
+        <v>647</v>
+      </c>
+      <c r="D71" t="s">
+        <v>308</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>296</v>
+      </c>
+      <c r="B72" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72">
+        <v>719</v>
+      </c>
+      <c r="D72" t="s">
+        <v>294</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>289</v>
+      </c>
+      <c r="B73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73">
+        <v>548</v>
+      </c>
+      <c r="D73" t="s">
+        <v>288</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>310</v>
+      </c>
+      <c r="B74" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74">
+        <v>617</v>
+      </c>
+      <c r="D74" t="s">
+        <v>309</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75">
+        <v>375</v>
+      </c>
+      <c r="D75" t="s">
+        <v>311</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>317</v>
+      </c>
+      <c r="B76" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76">
+        <v>527</v>
+      </c>
+      <c r="D76" t="s">
+        <v>313</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77">
+        <v>375</v>
+      </c>
+      <c r="D77" t="s">
+        <v>315</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78">
+        <v>375</v>
+      </c>
+      <c r="D78" t="s">
+        <v>314</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79">
+        <v>375</v>
+      </c>
+      <c r="D79" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80">
+        <v>375</v>
+      </c>
+      <c r="D80" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81">
+        <v>375</v>
+      </c>
+      <c r="D81" t="s">
+        <v>314</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82">
+        <v>375</v>
+      </c>
+      <c r="D82" t="s">
+        <v>321</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>325</v>
+      </c>
+      <c r="B83" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83">
+        <v>635</v>
+      </c>
+      <c r="D83" t="s">
+        <v>323</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84">
+        <v>375</v>
+      </c>
+      <c r="D84" t="s">
+        <v>324</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85">
+        <v>375</v>
+      </c>
+      <c r="D85" t="s">
+        <v>326</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>329</v>
+      </c>
+      <c r="B86" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86">
+        <v>599</v>
+      </c>
+      <c r="D86" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87">
+        <v>375</v>
+      </c>
+      <c r="D87" t="s">
+        <v>330</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>320</v>
+      </c>
+      <c r="B88" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88">
+        <v>375</v>
+      </c>
+      <c r="D88" t="s">
+        <v>330</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>332</v>
+      </c>
+      <c r="B89" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89">
+        <v>400</v>
+      </c>
+      <c r="D89" t="s">
+        <v>331</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90">
+        <v>587</v>
+      </c>
+      <c r="D90" t="s">
+        <v>333</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>307</v>
+      </c>
+      <c r="B91" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91">
+        <v>677</v>
+      </c>
+      <c r="D91" t="s">
+        <v>335</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>320</v>
+      </c>
+      <c r="B92" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92">
+        <v>375</v>
+      </c>
+      <c r="D92" t="s">
+        <v>324</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>337</v>
+      </c>
+      <c r="B93" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93">
+        <v>1079</v>
+      </c>
+      <c r="D93" t="s">
+        <v>336</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>337</v>
+      </c>
+      <c r="B94" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94">
+        <v>375</v>
+      </c>
+      <c r="D94" t="s">
+        <v>324</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>339</v>
+      </c>
+      <c r="B95" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95">
+        <v>375</v>
+      </c>
+      <c r="D95" t="s">
+        <v>338</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>341</v>
+      </c>
+      <c r="B96" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96">
+        <v>569</v>
+      </c>
+      <c r="D96" t="s">
+        <v>340</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>343</v>
+      </c>
+      <c r="B97" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97">
+        <v>629</v>
+      </c>
+      <c r="D97" t="s">
+        <v>342</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>345</v>
+      </c>
+      <c r="B98" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98">
+        <v>390</v>
+      </c>
+      <c r="D98" t="s">
+        <v>344</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99">
+        <v>425</v>
+      </c>
+      <c r="D99" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100">
+        <v>569</v>
+      </c>
+      <c r="D100" t="s">
+        <v>346</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>349</v>
+      </c>
+      <c r="B101" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101">
+        <v>539</v>
+      </c>
+      <c r="D101" t="s">
+        <v>348</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>351</v>
+      </c>
+      <c r="B102" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102">
+        <v>647</v>
+      </c>
+      <c r="D102" t="s">
+        <v>350</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>353</v>
+      </c>
+      <c r="B103" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103">
+        <v>449</v>
+      </c>
+      <c r="D103" t="s">
+        <v>352</v>
+      </c>
+      <c r="E103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>356</v>
+      </c>
+      <c r="B104" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104">
+        <v>557</v>
+      </c>
+      <c r="D104" t="s">
+        <v>354</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>358</v>
+      </c>
+      <c r="B105" t="s">
+        <v>282</v>
+      </c>
+      <c r="C105">
+        <v>497</v>
+      </c>
+      <c r="D105" t="s">
+        <v>357</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>360</v>
+      </c>
+      <c r="B106" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106">
+        <v>695</v>
+      </c>
+      <c r="D106" t="s">
+        <v>359</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>362</v>
+      </c>
+      <c r="B107" t="s">
+        <v>355</v>
+      </c>
+      <c r="C107">
+        <v>647</v>
+      </c>
+      <c r="D107" t="s">
+        <v>361</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>364</v>
+      </c>
+      <c r="B108" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108">
+        <v>500</v>
+      </c>
+      <c r="D108" t="s">
+        <v>363</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>366</v>
+      </c>
+      <c r="B109" t="s">
+        <v>282</v>
+      </c>
+      <c r="C109">
+        <v>563</v>
+      </c>
+      <c r="D109" t="s">
+        <v>365</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>368</v>
+      </c>
+      <c r="B110" t="s">
+        <v>282</v>
+      </c>
+      <c r="C110">
+        <v>500</v>
+      </c>
+      <c r="D110" t="s">
+        <v>367</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>370</v>
+      </c>
+      <c r="B111" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111">
+        <v>450</v>
+      </c>
+      <c r="D111" t="s">
+        <v>369</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>372</v>
+      </c>
+      <c r="B112" t="s">
+        <v>355</v>
+      </c>
+      <c r="C112">
+        <v>630</v>
+      </c>
+      <c r="D112" t="s">
+        <v>371</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" t="s">
+        <v>282</v>
+      </c>
+      <c r="C113">
+        <v>473</v>
+      </c>
+      <c r="D113" t="s">
+        <v>373</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>376</v>
+      </c>
+      <c r="B114" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114">
+        <v>455</v>
+      </c>
+      <c r="D114" t="s">
+        <v>375</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>378</v>
+      </c>
+      <c r="B115" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115">
+        <v>599</v>
+      </c>
+      <c r="D115" t="s">
+        <v>377</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>380</v>
+      </c>
+      <c r="B116" t="s">
+        <v>282</v>
+      </c>
+      <c r="C116">
+        <v>743</v>
+      </c>
+      <c r="D116" t="s">
+        <v>379</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>383</v>
+      </c>
+      <c r="B117" t="s">
+        <v>382</v>
+      </c>
+      <c r="C117">
+        <v>539</v>
+      </c>
+      <c r="D117" t="s">
+        <v>381</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>385</v>
+      </c>
+      <c r="B118" t="s">
+        <v>382</v>
+      </c>
+      <c r="C118">
+        <v>347</v>
+      </c>
+      <c r="D118" t="s">
+        <v>384</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>383</v>
+      </c>
+      <c r="B119" t="s">
+        <v>382</v>
+      </c>
+      <c r="C119">
+        <v>539</v>
+      </c>
+      <c r="D119" t="s">
+        <v>381</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>387</v>
+      </c>
+      <c r="B120" t="s">
+        <v>382</v>
+      </c>
+      <c r="C120">
+        <v>395</v>
+      </c>
+      <c r="D120" t="s">
+        <v>386</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>385</v>
+      </c>
+      <c r="B121" t="s">
+        <v>382</v>
+      </c>
+      <c r="C121">
+        <v>347</v>
+      </c>
+      <c r="D121" t="s">
+        <v>388</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>390</v>
+      </c>
+      <c r="B122" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122">
+        <v>650</v>
+      </c>
+      <c r="D122" t="s">
+        <v>389</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>390</v>
+      </c>
+      <c r="B123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C123">
+        <v>650</v>
+      </c>
+      <c r="D123" t="s">
+        <v>389</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>390</v>
+      </c>
+      <c r="B124" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124">
+        <v>650</v>
+      </c>
+      <c r="D124" t="s">
+        <v>389</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>392</v>
+      </c>
+      <c r="B125" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125">
+        <v>650</v>
+      </c>
+      <c r="D125" t="s">
+        <v>391</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>394</v>
+      </c>
+      <c r="B126" t="s">
+        <v>216</v>
+      </c>
+      <c r="C126">
+        <v>650</v>
+      </c>
+      <c r="D126" t="s">
+        <v>393</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>394</v>
+      </c>
+      <c r="B127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127">
+        <v>550</v>
+      </c>
+      <c r="D127" t="s">
+        <v>393</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>394</v>
+      </c>
+      <c r="B128" t="s">
+        <v>216</v>
+      </c>
+      <c r="C128">
+        <v>550</v>
+      </c>
+      <c r="D128" t="s">
+        <v>393</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>394</v>
+      </c>
+      <c r="B129" t="s">
+        <v>216</v>
+      </c>
+      <c r="C129">
+        <v>550</v>
+      </c>
+      <c r="D129" t="s">
+        <v>393</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>396</v>
+      </c>
+      <c r="B130" t="s">
+        <v>216</v>
+      </c>
+      <c r="C130">
+        <v>650</v>
+      </c>
+      <c r="D130" t="s">
+        <v>395</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>217</v>
+      </c>
+      <c r="B131" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131">
+        <v>550</v>
+      </c>
+      <c r="D131" t="s">
+        <v>397</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>394</v>
+      </c>
+      <c r="B132" t="s">
+        <v>216</v>
+      </c>
+      <c r="C132">
+        <v>550</v>
+      </c>
+      <c r="D132" t="s">
+        <v>398</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>401</v>
+      </c>
+      <c r="B133" t="s">
+        <v>400</v>
+      </c>
+      <c r="C133">
+        <v>500</v>
+      </c>
+      <c r="D133" t="s">
+        <v>399</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>396</v>
+      </c>
+      <c r="B134" t="s">
+        <v>216</v>
+      </c>
+      <c r="C134">
+        <v>650</v>
+      </c>
+      <c r="D134" t="s">
+        <v>402</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>396</v>
+      </c>
+      <c r="B135" t="s">
+        <v>216</v>
+      </c>
+      <c r="C135">
+        <v>650</v>
+      </c>
+      <c r="D135" t="s">
+        <v>402</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>396</v>
+      </c>
+      <c r="B136" t="s">
+        <v>216</v>
+      </c>
+      <c r="C136">
+        <v>650</v>
+      </c>
+      <c r="D136" t="s">
+        <v>402</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>404</v>
+      </c>
+      <c r="B137" t="s">
+        <v>216</v>
+      </c>
+      <c r="C137">
+        <v>650</v>
+      </c>
+      <c r="D137" t="s">
+        <v>403</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>396</v>
+      </c>
+      <c r="B138" t="s">
+        <v>216</v>
+      </c>
+      <c r="C138">
+        <v>650</v>
+      </c>
+      <c r="D138" t="s">
+        <v>402</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>404</v>
+      </c>
+      <c r="B139" t="s">
+        <v>216</v>
+      </c>
+      <c r="C139">
+        <v>650</v>
+      </c>
+      <c r="D139" t="s">
+        <v>403</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>390</v>
+      </c>
+      <c r="B140" t="s">
+        <v>216</v>
+      </c>
+      <c r="C140">
+        <v>650</v>
+      </c>
+      <c r="D140" t="s">
+        <v>405</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>392</v>
+      </c>
+      <c r="B141" t="s">
+        <v>216</v>
+      </c>
+      <c r="C141">
+        <v>650</v>
+      </c>
+      <c r="D141" t="s">
+        <v>406</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>394</v>
+      </c>
+      <c r="B142" t="s">
+        <v>216</v>
+      </c>
+      <c r="C142">
+        <v>550</v>
+      </c>
+      <c r="D142" t="s">
+        <v>416</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>418</v>
+      </c>
+      <c r="B143" t="s">
+        <v>216</v>
+      </c>
+      <c r="C143">
+        <v>650</v>
+      </c>
+      <c r="D143" t="s">
+        <v>417</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>414</v>
+      </c>
+      <c r="B144" t="s">
+        <v>216</v>
+      </c>
+      <c r="C144">
+        <v>650</v>
+      </c>
+      <c r="D144" t="s">
+        <v>419</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>247</v>
+      </c>
+      <c r="B145" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145">
+        <v>650</v>
+      </c>
+      <c r="D145" t="s">
+        <v>420</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146" t="s">
+        <v>216</v>
+      </c>
+      <c r="C146">
+        <v>650</v>
+      </c>
+      <c r="D146" t="s">
+        <v>420</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>422</v>
+      </c>
+      <c r="B147" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147">
+        <v>900</v>
+      </c>
+      <c r="D147" t="s">
+        <v>421</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>247</v>
+      </c>
+      <c r="B148" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148">
+        <v>650</v>
+      </c>
+      <c r="D148" t="s">
+        <v>423</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149" t="s">
+        <v>216</v>
+      </c>
+      <c r="C149">
+        <v>650</v>
+      </c>
+      <c r="D149" t="s">
+        <v>423</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>422</v>
+      </c>
+      <c r="B150" t="s">
+        <v>216</v>
+      </c>
+      <c r="C150">
+        <v>900</v>
+      </c>
+      <c r="D150" t="s">
+        <v>424</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>404</v>
+      </c>
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151">
+        <v>650</v>
+      </c>
+      <c r="D151" t="s">
+        <v>425</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>247</v>
+      </c>
+      <c r="B152" t="s">
+        <v>216</v>
+      </c>
+      <c r="C152">
+        <v>550</v>
+      </c>
+      <c r="D152" t="s">
+        <v>426</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>428</v>
+      </c>
+      <c r="B153" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153">
+        <v>650</v>
+      </c>
+      <c r="D153" t="s">
+        <v>427</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>428</v>
+      </c>
+      <c r="B154" t="s">
+        <v>216</v>
+      </c>
+      <c r="C154">
+        <v>650</v>
+      </c>
+      <c r="D154" t="s">
+        <v>427</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>428</v>
+      </c>
+      <c r="B155" t="s">
+        <v>216</v>
+      </c>
+      <c r="C155">
+        <v>650</v>
+      </c>
+      <c r="D155" t="s">
+        <v>429</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>431</v>
+      </c>
+      <c r="B156" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156">
+        <v>900</v>
+      </c>
+      <c r="D156" t="s">
+        <v>430</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>404</v>
+      </c>
+      <c r="B157" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157">
+        <v>650</v>
+      </c>
+      <c r="D157" t="s">
+        <v>432</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>434</v>
+      </c>
+      <c r="B158" t="s">
+        <v>216</v>
+      </c>
+      <c r="C158">
+        <v>900</v>
+      </c>
+      <c r="D158" t="s">
+        <v>433</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>434</v>
+      </c>
+      <c r="B159" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159">
+        <v>900</v>
+      </c>
+      <c r="D159" t="s">
+        <v>435</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>431</v>
+      </c>
+      <c r="B160" t="s">
+        <v>216</v>
+      </c>
+      <c r="C160">
+        <v>900</v>
+      </c>
+      <c r="D160" t="s">
+        <v>430</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>437</v>
+      </c>
+      <c r="B161" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161">
+        <v>900</v>
+      </c>
+      <c r="D161" t="s">
+        <v>436</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>437</v>
+      </c>
+      <c r="B162" t="s">
+        <v>216</v>
+      </c>
+      <c r="C162">
+        <v>900</v>
+      </c>
+      <c r="D162" t="s">
+        <v>436</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>431</v>
+      </c>
+      <c r="B163" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163">
+        <v>900</v>
+      </c>
+      <c r="D163" t="s">
+        <v>438</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>418</v>
+      </c>
+      <c r="B164" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164">
+        <v>650</v>
+      </c>
+      <c r="D164" t="s">
+        <v>417</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>431</v>
+      </c>
+      <c r="B165" t="s">
+        <v>216</v>
+      </c>
+      <c r="C165">
+        <v>900</v>
+      </c>
+      <c r="D165" t="s">
+        <v>438</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>431</v>
+      </c>
+      <c r="B166" t="s">
+        <v>216</v>
+      </c>
+      <c r="C166">
+        <v>900</v>
+      </c>
+      <c r="D166" t="s">
+        <v>438</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>431</v>
+      </c>
+      <c r="B167" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167">
+        <v>900</v>
+      </c>
+      <c r="D167" t="s">
+        <v>440</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>247</v>
+      </c>
+      <c r="B168" t="s">
+        <v>216</v>
+      </c>
+      <c r="C168">
+        <v>650</v>
+      </c>
+      <c r="D168" t="s">
+        <v>439</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>431</v>
+      </c>
+      <c r="B169" t="s">
+        <v>216</v>
+      </c>
+      <c r="C169">
+        <v>900</v>
+      </c>
+      <c r="D169" t="s">
+        <v>440</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>247</v>
+      </c>
+      <c r="B170" t="s">
+        <v>216</v>
+      </c>
+      <c r="C170">
+        <v>650</v>
+      </c>
+      <c r="D170" t="s">
+        <v>441</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>412</v>
+      </c>
+      <c r="B171" t="s">
+        <v>216</v>
+      </c>
+      <c r="C171">
+        <v>900</v>
+      </c>
+      <c r="D171" t="s">
+        <v>442</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>418</v>
+      </c>
+      <c r="B172" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172">
+        <v>550</v>
+      </c>
+      <c r="D172" t="s">
+        <v>443</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>414</v>
+      </c>
+      <c r="B173" t="s">
+        <v>216</v>
+      </c>
+      <c r="C173">
+        <v>650</v>
+      </c>
+      <c r="D173" t="s">
+        <v>407</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>415</v>
+      </c>
+      <c r="B174" t="s">
+        <v>216</v>
+      </c>
+      <c r="C174">
+        <v>650</v>
+      </c>
+      <c r="D174" t="s">
+        <v>413</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>414</v>
+      </c>
+      <c r="B175" t="s">
+        <v>216</v>
+      </c>
+      <c r="C175">
+        <v>650</v>
+      </c>
+      <c r="D175" t="s">
+        <v>413</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>414</v>
+      </c>
+      <c r="B176" t="s">
+        <v>216</v>
+      </c>
+      <c r="C176">
+        <v>650</v>
+      </c>
+      <c r="D176" t="s">
+        <v>413</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>412</v>
+      </c>
+      <c r="B177" t="s">
+        <v>216</v>
+      </c>
+      <c r="C177">
+        <v>900</v>
+      </c>
+      <c r="D177" t="s">
+        <v>411</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>247</v>
+      </c>
+      <c r="B178" t="s">
+        <v>216</v>
+      </c>
+      <c r="C178">
+        <v>650</v>
+      </c>
+      <c r="D178" t="s">
+        <v>407</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>247</v>
+      </c>
+      <c r="B179" t="s">
+        <v>216</v>
+      </c>
+      <c r="C179">
+        <v>650</v>
+      </c>
+      <c r="D179" t="s">
+        <v>407</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>247</v>
+      </c>
+      <c r="B180" t="s">
+        <v>216</v>
+      </c>
+      <c r="C180">
+        <v>650</v>
+      </c>
+      <c r="D180" t="s">
+        <v>410</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>247</v>
+      </c>
+      <c r="B181" t="s">
+        <v>409</v>
+      </c>
+      <c r="C181">
+        <v>650</v>
+      </c>
+      <c r="D181" t="s">
+        <v>408</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>247</v>
+      </c>
+      <c r="B182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C182">
+        <v>650</v>
+      </c>
+      <c r="D182" t="s">
+        <v>407</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>247</v>
+      </c>
+      <c r="B183" t="s">
+        <v>216</v>
+      </c>
+      <c r="C183">
+        <v>650</v>
+      </c>
+      <c r="D183" t="s">
+        <v>407</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>489</v>
+      </c>
+      <c r="B184" t="s">
+        <v>227</v>
+      </c>
+      <c r="C184">
+        <v>475</v>
+      </c>
+      <c r="D184" t="s">
+        <v>488</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>489</v>
+      </c>
+      <c r="B185" t="s">
+        <v>227</v>
+      </c>
+      <c r="C185">
+        <v>475</v>
+      </c>
+      <c r="D185" t="s">
+        <v>488</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>491</v>
+      </c>
+      <c r="B186" t="s">
+        <v>492</v>
+      </c>
+      <c r="C186">
+        <v>600</v>
+      </c>
+      <c r="D186" t="s">
+        <v>490</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>491</v>
+      </c>
+      <c r="B187" t="s">
+        <v>492</v>
+      </c>
+      <c r="C187">
+        <v>650</v>
+      </c>
+      <c r="D187" t="s">
+        <v>493</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>496</v>
+      </c>
+      <c r="B188" t="s">
+        <v>494</v>
+      </c>
+      <c r="C188">
+        <v>1250</v>
+      </c>
+      <c r="D188" t="s">
+        <v>495</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>498</v>
+      </c>
+      <c r="B189" t="s">
+        <v>494</v>
+      </c>
+      <c r="C189">
+        <v>1450</v>
+      </c>
+      <c r="D189" t="s">
+        <v>497</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>500</v>
+      </c>
+      <c r="B190" t="s">
+        <v>227</v>
+      </c>
+      <c r="C190">
+        <v>1100</v>
+      </c>
+      <c r="D190" t="s">
+        <v>499</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>502</v>
+      </c>
+      <c r="B191" t="s">
+        <v>227</v>
+      </c>
+      <c r="C191">
+        <v>1250</v>
+      </c>
+      <c r="D191" t="s">
+        <v>501</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>505</v>
+      </c>
+      <c r="B192" t="s">
+        <v>504</v>
+      </c>
+      <c r="C192">
+        <v>1795</v>
+      </c>
+      <c r="D192" t="s">
+        <v>503</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>507</v>
+      </c>
+      <c r="B193" t="s">
+        <v>504</v>
+      </c>
+      <c r="C193">
+        <v>1795</v>
+      </c>
+      <c r="D193" t="s">
+        <v>506</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>509</v>
+      </c>
+      <c r="B194" t="s">
+        <v>504</v>
+      </c>
+      <c r="C194">
+        <v>1795</v>
+      </c>
+      <c r="D194" t="s">
+        <v>508</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>511</v>
+      </c>
+      <c r="B195" t="s">
+        <v>494</v>
+      </c>
+      <c r="C195">
+        <v>1450</v>
+      </c>
+      <c r="D195" t="s">
+        <v>510</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>513</v>
+      </c>
+      <c r="B196" t="s">
+        <v>494</v>
+      </c>
+      <c r="C196">
+        <v>1250</v>
+      </c>
+      <c r="D196" t="s">
+        <v>512</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>515</v>
+      </c>
+      <c r="B197" t="s">
+        <v>355</v>
+      </c>
+      <c r="C197">
+        <v>600</v>
+      </c>
+      <c r="D197" t="s">
+        <v>514</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>523</v>
+      </c>
+      <c r="B198" t="s">
+        <v>492</v>
+      </c>
+      <c r="C198">
+        <v>495</v>
+      </c>
+      <c r="D198" t="s">
+        <v>520</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>517</v>
+      </c>
+      <c r="B199" t="s">
+        <v>492</v>
+      </c>
+      <c r="C199">
+        <v>480</v>
+      </c>
+      <c r="D199" t="s">
+        <v>516</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>519</v>
+      </c>
+      <c r="B200" t="s">
+        <v>492</v>
+      </c>
+      <c r="C200">
+        <v>500</v>
+      </c>
+      <c r="D200" t="s">
+        <v>518</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>524</v>
+      </c>
+      <c r="B201" t="s">
+        <v>492</v>
+      </c>
+      <c r="C201">
+        <v>450</v>
+      </c>
+      <c r="D201" t="s">
+        <v>521</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>525</v>
+      </c>
+      <c r="B202" t="s">
+        <v>492</v>
+      </c>
+      <c r="C202">
+        <v>480</v>
+      </c>
+      <c r="D202" t="s">
+        <v>522</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>527</v>
+      </c>
+      <c r="B203" t="s">
+        <v>492</v>
+      </c>
+      <c r="C203">
+        <v>600</v>
+      </c>
+      <c r="D203" t="s">
+        <v>526</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>529</v>
+      </c>
+      <c r="B204" t="s">
+        <v>492</v>
+      </c>
+      <c r="C204">
+        <v>450</v>
+      </c>
+      <c r="D204" t="s">
+        <v>528</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>531</v>
+      </c>
+      <c r="B205" t="s">
+        <v>494</v>
+      </c>
+      <c r="C205">
+        <v>1200</v>
+      </c>
+      <c r="D205" t="s">
+        <v>530</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>534</v>
+      </c>
+      <c r="B206" t="s">
+        <v>533</v>
+      </c>
+      <c r="C206">
+        <v>930</v>
+      </c>
+      <c r="D206" t="s">
+        <v>532</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>536</v>
+      </c>
+      <c r="B207" t="s">
+        <v>533</v>
+      </c>
+      <c r="C207">
+        <v>840</v>
+      </c>
+      <c r="D207" t="s">
+        <v>535</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>538</v>
+      </c>
+      <c r="B208" t="s">
+        <v>504</v>
+      </c>
+      <c r="C208">
+        <v>1290</v>
+      </c>
+      <c r="D208" t="s">
+        <v>537</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>540</v>
+      </c>
+      <c r="B209" t="s">
+        <v>504</v>
+      </c>
+      <c r="C209">
+        <v>1490</v>
+      </c>
+      <c r="D209" t="s">
+        <v>539</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>542</v>
+      </c>
+      <c r="B210" t="s">
+        <v>504</v>
+      </c>
+      <c r="C210">
+        <v>1050</v>
+      </c>
+      <c r="D210" t="s">
+        <v>541</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>544</v>
+      </c>
+      <c r="B211" t="s">
+        <v>533</v>
+      </c>
+      <c r="C211">
+        <v>995</v>
+      </c>
+      <c r="D211" t="s">
+        <v>543</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>546</v>
+      </c>
+      <c r="B212" t="s">
+        <v>533</v>
+      </c>
+      <c r="C212">
+        <v>930</v>
+      </c>
+      <c r="D212" t="s">
+        <v>545</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>548</v>
+      </c>
+      <c r="B213" t="s">
+        <v>533</v>
+      </c>
+      <c r="C213">
+        <v>935</v>
+      </c>
+      <c r="D213" t="s">
+        <v>547</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>550</v>
+      </c>
+      <c r="B214" t="s">
+        <v>533</v>
+      </c>
+      <c r="C214">
+        <v>670</v>
+      </c>
+      <c r="D214" t="s">
+        <v>549</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>544</v>
+      </c>
+      <c r="B215" t="s">
+        <v>533</v>
+      </c>
+      <c r="C215">
+        <v>900</v>
+      </c>
+      <c r="D215" t="s">
+        <v>551</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>550</v>
+      </c>
+      <c r="B216" t="s">
+        <v>533</v>
+      </c>
+      <c r="C216">
+        <v>670</v>
+      </c>
+      <c r="D216" t="s">
+        <v>552</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>554</v>
+      </c>
+      <c r="B217" t="s">
+        <v>533</v>
+      </c>
+      <c r="C217">
+        <v>995</v>
+      </c>
+      <c r="D217" t="s">
+        <v>553</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>556</v>
+      </c>
+      <c r="B218" t="s">
+        <v>533</v>
+      </c>
+      <c r="C218">
+        <v>617</v>
+      </c>
+      <c r="D218" t="s">
+        <v>555</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>558</v>
+      </c>
+      <c r="B219" t="s">
+        <v>504</v>
+      </c>
+      <c r="C219">
+        <v>1637</v>
+      </c>
+      <c r="D219" t="s">
+        <v>557</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>560</v>
+      </c>
+      <c r="B220" t="s">
+        <v>504</v>
+      </c>
+      <c r="C220">
+        <v>1637</v>
+      </c>
+      <c r="D220" t="s">
+        <v>559</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>293</v>
+      </c>
+      <c r="B221" t="s">
+        <v>282</v>
+      </c>
+      <c r="C221">
+        <v>575</v>
+      </c>
+      <c r="D221" t="s">
+        <v>561</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" t="s">
+        <v>230</v>
+      </c>
+      <c r="C222">
+        <v>659</v>
+      </c>
+      <c r="D222" t="s">
+        <v>562</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>563</v>
+      </c>
+      <c r="B223" t="s">
+        <v>492</v>
+      </c>
+      <c r="C223">
+        <v>750</v>
+      </c>
+      <c r="D223" t="s">
+        <v>564</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>563</v>
+      </c>
+      <c r="B224" t="s">
+        <v>492</v>
+      </c>
+      <c r="C224">
+        <v>750</v>
+      </c>
+      <c r="D224" t="s">
+        <v>564</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>563</v>
+      </c>
+      <c r="B225" t="s">
+        <v>492</v>
+      </c>
+      <c r="C225">
+        <v>650</v>
+      </c>
+      <c r="D225" t="s">
+        <v>564</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>565</v>
+      </c>
+      <c r="B226" t="s">
+        <v>504</v>
+      </c>
+      <c r="C226">
+        <v>1050</v>
+      </c>
+      <c r="D226" t="s">
+        <v>565</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>567</v>
+      </c>
+      <c r="B227" t="s">
+        <v>504</v>
+      </c>
+      <c r="C227">
+        <v>1290</v>
+      </c>
+      <c r="D227" t="s">
+        <v>566</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{94596CDE-C247-4394-9B75-5FC5A0A68D22}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{C9C1AA2B-E96C-4222-B8A4-AD333E1648E4}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{0B2D4D26-538D-48C2-BC6B-6202ABE9932B}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{E4BE3B48-4CC2-423E-84B1-DBF2A234D5EA}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{9C7D3D5B-4566-4514-8038-DEF23754F58D}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{8B48A86C-45DD-40D5-AA39-157C3FA3B78B}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{50509058-221E-4A5F-A109-164D9353A2BE}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{5DCF3504-EE7A-4C84-88F4-F51AE4599977}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{550FA20F-9256-4854-B11A-BB8A579A6C63}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{6D473EB2-18EA-4C5E-943E-EACDE7DCEDD7}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{95713187-574D-4E21-83CD-CB3633B8EE4C}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{FB288B55-9CFA-496A-BE67-D15836ADD582}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{F0263311-D5B0-47BD-B7CD-1D9DB6FBE809}"/>
-    <hyperlink ref="E24" r:id="rId14" xr:uid="{50BE5937-96C8-4746-AA3A-7A9AF22B7902}"/>
-    <hyperlink ref="E23" r:id="rId15" xr:uid="{AD4B8F72-965B-42A4-A7E0-70712ED6E0F8}"/>
-    <hyperlink ref="E22" r:id="rId16" xr:uid="{FD75D8C9-3F12-43CD-905C-F7402297E035}"/>
-    <hyperlink ref="E21" r:id="rId17" xr:uid="{FCC8B0B4-9430-40CD-9C2B-C5190C0E9CD8}"/>
-    <hyperlink ref="E20" r:id="rId18" xr:uid="{BCE28509-CAE1-4EF4-88D4-B0C710F0741C}"/>
-    <hyperlink ref="E19" r:id="rId19" xr:uid="{A2DEE5F4-B129-41B8-8981-FCA8102059B1}"/>
-    <hyperlink ref="E18" r:id="rId20" xr:uid="{10BF8558-8E17-4188-BB38-7752023D3334}"/>
-    <hyperlink ref="E17" r:id="rId21" xr:uid="{A9343F62-B453-4D31-8183-4387AAF0EDFF}"/>
-    <hyperlink ref="E16" r:id="rId22" xr:uid="{67478DDA-4E46-441C-AF0C-9FA077D5FEE0}"/>
-    <hyperlink ref="E15" r:id="rId23" xr:uid="{41B5A324-1849-4B41-814A-BB3C086BA946}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3D925B85-92CD-4AA6-A624-19A375B1307D}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{31CCA699-DC33-43C3-B004-F9AFC47C3689}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{8162DCD5-3CD5-40CA-BF98-0C8532008B10}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{147AB1DA-AA76-4C87-965C-739D987DEFA8}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{4F8F4CC8-81EE-44D7-9ED5-03EBF65CF413}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{D4B83B48-DDFD-4C3A-AC97-2658BE3DC605}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{E03D1ACD-CBCA-4796-8884-31136CFCBEAA}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{35AAD8D6-1629-41A8-9FBC-CA822F6FD357}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{4BD00AF9-C7CA-4E81-AE6C-B4BED9547B26}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{E2589061-1A13-4A3E-B3D8-14789C125539}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{C494FAC9-F809-43CB-9971-C4462E88A010}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{B7814617-813B-4CD9-B865-C79D11DE46DF}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{151DAA48-0243-44BF-AC72-F3DA9D7A0480}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{E0481287-E756-48E2-939A-10ECC783F22A}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{309D1E63-BE8D-4B2C-9D72-27B44C38B3B3}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{9F557C55-028F-4D39-86A5-C48EF7A8D59D}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{CEDDAD6E-AB09-46F5-BBEA-4D1EF32DDFFA}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{4184AECC-E018-4D97-B58F-26A73C121F17}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{08FC0B48-708C-4087-ABAC-C831B77DFFE8}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{2C4C200F-A091-48A6-8ADD-A819F163190A}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{08482EC3-1E18-4331-AC8F-49064475DCEF}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{ABF8C419-DA8D-49EE-B669-14C156C5AA57}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{1E603BEF-88CC-4737-BFEC-7CF5A38F4D77}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{411BB2C9-C215-49F5-AE70-98B40941105C}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{CE227A10-730E-4CB4-B3B0-D1AD3C46571C}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{331573A9-4AAC-418D-A1FD-715194E78B65}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{DB87AA95-BA81-4947-93D4-FD94549E400A}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{79B410D8-26A4-42BB-A727-8117CEC074B9}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{1D68956B-036D-4843-A9E6-25449073A126}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{1A46415F-9B42-4DB6-89B9-BE10E7E56927}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{0C8B1468-D43C-4F39-BB25-F2B4F096FCAE}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{9C907DE9-D734-4A3D-8AB0-60008B7FEC01}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{002133B4-9AB3-4B24-83E1-DD64379521B8}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{E4D8341B-C90F-486A-8BC0-35DCE4581BF5}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{7B36AF01-6133-467D-8217-2ADF018E648F}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{1405CC26-E565-49BF-9E2E-1C6F1534E18C}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{40EC7875-05C2-47C1-8164-855CF8174EE4}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{AD6E989D-6608-4BF1-AF7C-F1C4727405E9}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{EEDB1FAF-04FB-4895-832C-5B61A36A788E}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{32DC3A1D-BC24-4CFF-8D38-934C11E6941D}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{73C7302F-B01C-4B22-B530-44E85D0C9D69}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{DD138D45-8DCB-40B2-8D07-F8AF79281070}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{35A23868-260F-40C2-BBAA-78A6DA815AD5}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{CC632AC4-ACF5-42C8-8B9F-72334C724155}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{99024938-70C8-4A76-9EFC-59BBAE540CBD}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{DF800CC8-D678-4FFF-BB6E-D50D967C91CB}"/>
+    <hyperlink ref="E48" r:id="rId47" xr:uid="{DA390BF1-B13A-4C92-A3A0-A230F0C7EEF6}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{B8B6ED70-B6EB-4855-8250-D9CE9969A26C}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{1A9980A8-70DA-4132-B1CE-AA0285FE1D64}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{D87F6D90-1265-4164-9364-7F1B516F256F}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{CAF441FF-2776-4F07-A79A-856D13E337E9}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{A27DC036-CF3F-4587-94F6-D7B06DE57162}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{829C86B1-2398-4414-8E01-15DDE47A71F3}"/>
+    <hyperlink ref="E55" r:id="rId54" xr:uid="{54B5F217-E6CE-433C-95A3-830C4DD98D42}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{E8F77CE8-C479-41C4-9446-0C7FFB85475A}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{F3C858C2-45E1-479F-BBA7-72F2CD0F36A8}"/>
+    <hyperlink ref="E58" r:id="rId57" xr:uid="{30718C81-4436-4BC3-B885-CC3E0338506F}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{085BAFAB-2435-4F4C-AF3B-860BA64049FC}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{62C96329-773B-4720-AE25-9EAC49D70F44}"/>
+    <hyperlink ref="E61" r:id="rId60" xr:uid="{19A7CEB3-0431-4FE3-88B2-1120DB00B9C1}"/>
+    <hyperlink ref="E62" r:id="rId61" xr:uid="{CD4D88F8-F08F-413D-9D20-6F3445E83FB8}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{C51C9966-DEB3-459D-80E4-4B5CAC4EDB1A}"/>
+    <hyperlink ref="E64" r:id="rId63" xr:uid="{1660E98E-E9EA-4B8A-92A9-0407A800CECD}"/>
+    <hyperlink ref="E65" r:id="rId64" xr:uid="{26B26AFA-181F-4F05-99EA-9889D4FD2323}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{2433D439-9BD3-425A-9293-A60D07F8874A}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{0798CC68-E6B5-4EC8-A099-134180A85D19}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{AAC5E0E1-01CE-4C54-9F8D-AAB19C9C296A}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{6E8C8941-5683-4EF9-8608-6AC27AAB3397}"/>
+    <hyperlink ref="E70" r:id="rId69" xr:uid="{0C7BE385-A17C-46FA-92F0-EE6B57E54E92}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{303A6066-195C-483B-B5DD-8142AF393013}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{753024AD-CDE3-4DE6-B631-549E8F583549}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{B21AF258-8A35-4F89-9FC4-549DCE6E334E}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{D1516694-8A3D-4C60-9AF9-1CCAC3A8C15B}"/>
+    <hyperlink ref="E75" r:id="rId74" xr:uid="{6A0390EF-C56E-4284-BE12-3FCB81F51FB2}"/>
+    <hyperlink ref="E76" r:id="rId75" xr:uid="{A21DF931-67AA-4ECA-A8CE-95AC792E60AE}"/>
+    <hyperlink ref="E77" r:id="rId76" xr:uid="{6630A018-77FA-47A9-9D7F-9235EF632A30}"/>
+    <hyperlink ref="E78" r:id="rId77" xr:uid="{CEF6E550-8BEA-4C55-A344-88A09533CBE6}"/>
+    <hyperlink ref="E79" r:id="rId78" xr:uid="{79B0C54E-7648-4584-A424-4C408415ACED}"/>
+    <hyperlink ref="E80" r:id="rId79" xr:uid="{B9C6F4BC-11AA-4BB2-A5A2-0D1A6822F0BE}"/>
+    <hyperlink ref="E81" r:id="rId80" xr:uid="{9D533AA8-2CFB-4895-B6D5-01D34193E06F}"/>
+    <hyperlink ref="E82" r:id="rId81" xr:uid="{09D383DA-DFE3-4470-A1CF-5E265738B76F}"/>
+    <hyperlink ref="E83" r:id="rId82" xr:uid="{690A94A6-D7EC-44E4-AB2A-A2A09F90FCCB}"/>
+    <hyperlink ref="E84" r:id="rId83" xr:uid="{0A8D40E9-11A5-4239-8086-662C507D9995}"/>
+    <hyperlink ref="E85" r:id="rId84" xr:uid="{CFAE0896-0378-47AF-B222-931B81C2BD8C}"/>
+    <hyperlink ref="E86" r:id="rId85" xr:uid="{D7CD00B9-1EC1-4E5C-A7A1-730E7828DB8F}"/>
+    <hyperlink ref="E87" r:id="rId86" xr:uid="{19F2B210-C0BE-4579-BDD3-133BC76DF3D3}"/>
+    <hyperlink ref="E88" r:id="rId87" xr:uid="{2497C4E9-A4DA-46ED-93BD-8F72E354234D}"/>
+    <hyperlink ref="E89" r:id="rId88" xr:uid="{B7B2AC5F-6276-4F2F-9307-DFB2A9805608}"/>
+    <hyperlink ref="E90" r:id="rId89" xr:uid="{1740631B-E4D2-45AD-AA5E-9182BE9A3E3E}"/>
+    <hyperlink ref="E91" r:id="rId90" xr:uid="{E553AB5F-E76A-4053-8F83-E4C966634EFC}"/>
+    <hyperlink ref="E92" r:id="rId91" xr:uid="{0E994A19-B358-4A5F-94D1-21725811FEDF}"/>
+    <hyperlink ref="E93" r:id="rId92" xr:uid="{B1E33F25-94A0-438D-A73A-B79FC7D4F541}"/>
+    <hyperlink ref="E94" r:id="rId93" xr:uid="{F880A893-5550-4435-B3EF-6606F1C17B73}"/>
+    <hyperlink ref="E95" r:id="rId94" xr:uid="{E923D70C-FA30-4682-B2A3-89ACBF11A931}"/>
+    <hyperlink ref="E96" r:id="rId95" xr:uid="{8B569FEF-6946-45BD-B92B-CFFF62C0225E}"/>
+    <hyperlink ref="E97" r:id="rId96" xr:uid="{FFA3C41D-9478-4E16-BE3A-0C58A2B6BB9C}"/>
+    <hyperlink ref="E98" r:id="rId97" xr:uid="{1A501A05-AB98-41FF-81BB-1C254BF5ADD7}"/>
+    <hyperlink ref="E99" r:id="rId98" xr:uid="{92309E87-8774-4DBB-854A-9497477E81D4}"/>
+    <hyperlink ref="E100" r:id="rId99" xr:uid="{35D44287-63A4-4098-9C34-3BED63D728D7}"/>
+    <hyperlink ref="E101" r:id="rId100" xr:uid="{AA277AC2-496C-4F86-91C8-B3FD095A0F6B}"/>
+    <hyperlink ref="E102" r:id="rId101" xr:uid="{45DFACD5-2FF3-474C-AC4D-C21709D65BA9}"/>
+    <hyperlink ref="E104" r:id="rId102" xr:uid="{9752C0C1-BDF1-4B98-AC21-B39E0800529C}"/>
+    <hyperlink ref="E105" r:id="rId103" xr:uid="{86F0C7BF-9B88-456F-BD34-B6067539C697}"/>
+    <hyperlink ref="E106" r:id="rId104" xr:uid="{6E8ECEF3-7CEA-4CFB-BCA5-D6F2B2F1EEB6}"/>
+    <hyperlink ref="E107" r:id="rId105" xr:uid="{22E6429A-861D-46E8-A281-597DBC4E8496}"/>
+    <hyperlink ref="E108" r:id="rId106" xr:uid="{D822C858-F9C1-4C8C-9386-B8AE65319564}"/>
+    <hyperlink ref="E109" r:id="rId107" xr:uid="{48994E1E-3EAB-4D4C-B47C-8DF24B2D4999}"/>
+    <hyperlink ref="E110" r:id="rId108" xr:uid="{856D65AB-6294-4E83-BEF7-A777CCDF992A}"/>
+    <hyperlink ref="E111" r:id="rId109" xr:uid="{68989BFA-3144-46A9-9D62-D9E1DC2A3354}"/>
+    <hyperlink ref="E112" r:id="rId110" xr:uid="{47D14C27-7480-4FBA-A4F8-5BDA2F5725B1}"/>
+    <hyperlink ref="E113" r:id="rId111" xr:uid="{7FA21C4A-1EED-49D5-84E2-C526982F7BC7}"/>
+    <hyperlink ref="E114" r:id="rId112" xr:uid="{91CD1F8F-876D-4E2D-AEDE-4108ECE67DA0}"/>
+    <hyperlink ref="E115" r:id="rId113" xr:uid="{1F9EC1D2-2737-47C8-A642-1E42B2850627}"/>
+    <hyperlink ref="E116" r:id="rId114" xr:uid="{85B53670-FAFB-48BB-9C60-3190A32C7754}"/>
+    <hyperlink ref="E117" r:id="rId115" xr:uid="{D337EDB9-1C16-4ED2-87AB-DBD5EF88D27E}"/>
+    <hyperlink ref="E118" r:id="rId116" xr:uid="{BBD6E7FB-4782-4BB6-8A07-F31617731BCE}"/>
+    <hyperlink ref="E119" r:id="rId117" xr:uid="{34221BEF-C342-41A7-84AE-69A64329323B}"/>
+    <hyperlink ref="E120" r:id="rId118" xr:uid="{9F97715E-FD10-4BA8-BAF0-886BA84C2CC5}"/>
+    <hyperlink ref="E121" r:id="rId119" xr:uid="{69BAF72D-66F9-43BB-A1AB-2F80C184EBF5}"/>
+    <hyperlink ref="E122" r:id="rId120" xr:uid="{6FCA65C2-269A-48CE-ADCF-39247A2D8EF9}"/>
+    <hyperlink ref="E123" r:id="rId121" xr:uid="{4038DAF7-DA6C-45B8-8C38-644015CD0029}"/>
+    <hyperlink ref="E124" r:id="rId122" xr:uid="{B8CA99D0-73E9-4239-A399-60C5FDE0E49B}"/>
+    <hyperlink ref="E125" r:id="rId123" xr:uid="{C73F7571-966D-4462-AC3B-371669035A8D}"/>
+    <hyperlink ref="E126" r:id="rId124" xr:uid="{7BC53F4C-901F-48BF-80E2-BE7A99D114CA}"/>
+    <hyperlink ref="E127" r:id="rId125" xr:uid="{96DBF1E0-A2F2-4DD5-908E-1092F2D4DF8C}"/>
+    <hyperlink ref="E128" r:id="rId126" xr:uid="{57EACDBE-F1F5-4E7C-AAE8-59CD99BF7EF4}"/>
+    <hyperlink ref="E129" r:id="rId127" xr:uid="{18B19EFE-F94D-4F58-9791-5CCF3DE8A204}"/>
+    <hyperlink ref="E130" r:id="rId128" xr:uid="{10BF5B42-24BD-4882-B469-A33B88B2450B}"/>
+    <hyperlink ref="E131" r:id="rId129" xr:uid="{2820775A-38ED-476B-ADFD-0943F9B21BB5}"/>
+    <hyperlink ref="E132" r:id="rId130" xr:uid="{B031D847-B909-4900-954B-17F1992D3960}"/>
+    <hyperlink ref="E133" r:id="rId131" xr:uid="{4230CEB6-9DE8-4969-AC8F-31C977EF4A1A}"/>
+    <hyperlink ref="E134" r:id="rId132" xr:uid="{5750DCAE-369D-4F2F-A2F6-2B9AB977F5FF}"/>
+    <hyperlink ref="E135" r:id="rId133" xr:uid="{9AEA4AE6-F8B9-4D68-8775-E6281FD9F28E}"/>
+    <hyperlink ref="E136" r:id="rId134" xr:uid="{16C334A7-97F6-46A3-BE84-A04D96D9DE68}"/>
+    <hyperlink ref="E137" r:id="rId135" xr:uid="{401EF244-21DC-4726-9C48-54C8E8164632}"/>
+    <hyperlink ref="E138" r:id="rId136" xr:uid="{DF64D26C-7B12-47AE-8836-6860C29EC8B3}"/>
+    <hyperlink ref="E139" r:id="rId137" xr:uid="{7B626914-631E-47DD-8B31-FF73D6E1BCBC}"/>
+    <hyperlink ref="E140" r:id="rId138" xr:uid="{19BA8A8C-DB4A-45E9-BB37-2453BF630396}"/>
+    <hyperlink ref="E141" r:id="rId139" xr:uid="{9EA2D298-F33B-4D78-BC72-03BC29F681A6}"/>
+    <hyperlink ref="E183" r:id="rId140" xr:uid="{E04790F9-37BD-49C4-81AC-186A3DF94B30}"/>
+    <hyperlink ref="E182" r:id="rId141" xr:uid="{4EEE3C5E-D631-4277-88B3-65F5F8B3F2EB}"/>
+    <hyperlink ref="E181" r:id="rId142" xr:uid="{BA596A81-6EFF-4D88-A6B8-8F21843457EC}"/>
+    <hyperlink ref="E180" r:id="rId143" xr:uid="{528452E1-23C0-4B26-BE86-A7BEE0FBF16B}"/>
+    <hyperlink ref="E179" r:id="rId144" xr:uid="{7CA8B412-1934-4FEB-8235-6E2138920522}"/>
+    <hyperlink ref="E178" r:id="rId145" xr:uid="{E4F4A983-AA3B-4CF1-8ECE-191DD65431B8}"/>
+    <hyperlink ref="E177" r:id="rId146" xr:uid="{34649270-7942-4C01-A644-71F40D7C4F5B}"/>
+    <hyperlink ref="E176" r:id="rId147" xr:uid="{3AC5A10E-5597-45DB-9D69-7BDE8A1C4857}"/>
+    <hyperlink ref="E175" r:id="rId148" xr:uid="{020BE2C2-4D0D-473C-AAEC-FD15C4A9CF24}"/>
+    <hyperlink ref="E174" r:id="rId149" xr:uid="{4ED08A29-1A99-468E-BA3B-4183C155FABD}"/>
+    <hyperlink ref="E173" r:id="rId150" xr:uid="{5053CEA9-EE43-4CB8-93F4-1BDA0DE647E9}"/>
+    <hyperlink ref="E142" r:id="rId151" xr:uid="{38ABB0E3-2E50-4655-ACC0-1D1A8993035F}"/>
+    <hyperlink ref="E143" r:id="rId152" xr:uid="{4BD8CD42-1330-4382-BBA6-2BA4F75EA739}"/>
+    <hyperlink ref="E144" r:id="rId153" xr:uid="{865A47B0-74C9-41CE-BC4B-3150C09BCA51}"/>
+    <hyperlink ref="E145" r:id="rId154" xr:uid="{C519C373-5FD5-4713-B081-9598C162EAAD}"/>
+    <hyperlink ref="E146" r:id="rId155" xr:uid="{440F8237-58BB-459E-B74D-666DB4813A4D}"/>
+    <hyperlink ref="E147" r:id="rId156" xr:uid="{EEB24F2D-3D78-49D8-BCEC-F772763F8444}"/>
+    <hyperlink ref="E148" r:id="rId157" xr:uid="{54B4D6E7-AC76-465B-9C25-71108E7A481A}"/>
+    <hyperlink ref="E149" r:id="rId158" xr:uid="{263DDE54-67A5-4888-9B2E-FE5247EF7F43}"/>
+    <hyperlink ref="E150" r:id="rId159" xr:uid="{30C1A3D7-FF81-4258-ADF9-DDD460305C74}"/>
+    <hyperlink ref="E151" r:id="rId160" xr:uid="{54B6DFA4-6C53-404A-8C2F-45FED7A6F739}"/>
+    <hyperlink ref="E152" r:id="rId161" xr:uid="{D6B49130-060A-4DF8-8CBE-4BB0C05DF98C}"/>
+    <hyperlink ref="E153" r:id="rId162" xr:uid="{C7DBAD02-DF17-4364-A566-4C905E2D8BBF}"/>
+    <hyperlink ref="E154" r:id="rId163" xr:uid="{A61751A1-B340-42E3-886B-E94AEF8E2F54}"/>
+    <hyperlink ref="E155" r:id="rId164" xr:uid="{07263FFC-D5CA-44DE-B074-08CDC6F4865F}"/>
+    <hyperlink ref="E156" r:id="rId165" xr:uid="{F3009D3A-3B77-4B54-A1A3-09EC05791E68}"/>
+    <hyperlink ref="E157" r:id="rId166" xr:uid="{80FDCDA5-FAAC-4AC5-9A8C-9998AE6D672A}"/>
+    <hyperlink ref="E158" r:id="rId167" xr:uid="{C9DC2DEB-A921-42F0-BA71-950BCCFB0F65}"/>
+    <hyperlink ref="E159" r:id="rId168" xr:uid="{2F4C199F-7A31-4DF1-98BF-896A49E46B26}"/>
+    <hyperlink ref="E160" r:id="rId169" xr:uid="{B3097185-FD7E-4240-8372-7410FCF49AF7}"/>
+    <hyperlink ref="E161" r:id="rId170" xr:uid="{CED68A5D-33FD-4DE8-87E2-42410EBCC2B7}"/>
+    <hyperlink ref="E162" r:id="rId171" xr:uid="{E0322413-DD40-498B-BEB8-1D66EFB2D4D2}"/>
+    <hyperlink ref="E163" r:id="rId172" xr:uid="{2391BC9B-B244-4C9B-A158-DD2DF2C96043}"/>
+    <hyperlink ref="E164" r:id="rId173" xr:uid="{BB3E5EFF-85E7-4FF3-A208-8E9CBB5F8FCD}"/>
+    <hyperlink ref="E165" r:id="rId174" xr:uid="{3514AD81-5E09-4060-BD0C-91270B56A218}"/>
+    <hyperlink ref="E166" r:id="rId175" xr:uid="{BB8788F1-C6D2-4333-A9BE-FD5D09D7FB42}"/>
+    <hyperlink ref="E167" r:id="rId176" xr:uid="{6DDDE596-880A-45CC-8FA8-9F0937FB8C6E}"/>
+    <hyperlink ref="E168" r:id="rId177" xr:uid="{3FD21A7E-798B-44C5-A1CB-F1C2914B7D1C}"/>
+    <hyperlink ref="E169" r:id="rId178" xr:uid="{C89A63BA-887D-44D7-ACD0-22ADDF8EE3B6}"/>
+    <hyperlink ref="E170" r:id="rId179" xr:uid="{A21427ED-CC35-4B5A-8561-A1F71E4D69DE}"/>
+    <hyperlink ref="E171" r:id="rId180" xr:uid="{FFDCADC0-7CD1-4491-8362-767DDFE4D74A}"/>
+    <hyperlink ref="E172" r:id="rId181" xr:uid="{7B7AE6B3-805E-4FEA-8898-D5DB8155C072}"/>
+    <hyperlink ref="E184" r:id="rId182" xr:uid="{045D6682-CAD6-4579-A8B0-A6CCD9B00388}"/>
+    <hyperlink ref="E185" r:id="rId183" xr:uid="{758533C8-A760-43EB-A9EA-1FB184E982C9}"/>
+    <hyperlink ref="E186" r:id="rId184" xr:uid="{B73917D0-9D60-41C6-88D5-38225AB3B6F2}"/>
+    <hyperlink ref="E187" r:id="rId185" xr:uid="{229169FC-74DF-4023-AA6F-27FB232BBAD7}"/>
+    <hyperlink ref="E188" r:id="rId186" xr:uid="{F9BC870E-B733-41B9-8247-5F3150FFD956}"/>
+    <hyperlink ref="E189" r:id="rId187" xr:uid="{237C3E2D-A644-4E2A-97C8-105F33132E51}"/>
+    <hyperlink ref="E190" r:id="rId188" xr:uid="{AA9D4EEB-0720-4F93-AA5D-6B566700CA71}"/>
+    <hyperlink ref="E191" r:id="rId189" xr:uid="{C73F0CF2-4F1B-4612-A3CF-CE8B51FDDAC1}"/>
+    <hyperlink ref="E192" r:id="rId190" xr:uid="{2E84FA1A-DA9D-400D-9FD1-E7FDAB85F8BD}"/>
+    <hyperlink ref="E193" r:id="rId191" xr:uid="{C5ECBB42-9AE7-4B31-8C27-9AD9356375D0}"/>
+    <hyperlink ref="E194" r:id="rId192" xr:uid="{204142A3-09FF-4570-93F8-0A37C67DAE04}"/>
+    <hyperlink ref="E195" r:id="rId193" xr:uid="{5E61A6F3-B0BB-406C-A326-DF3F69C2D53C}"/>
+    <hyperlink ref="E196" r:id="rId194" xr:uid="{D7EE60DC-6CD9-4998-8945-6D70955531BC}"/>
+    <hyperlink ref="E197" r:id="rId195" xr:uid="{51AF8C2B-2404-4268-AE24-547D1DB5D26A}"/>
+    <hyperlink ref="E198" r:id="rId196" xr:uid="{F4E68F6E-E215-4AAB-BD2E-8FA259E9A7C9}"/>
+    <hyperlink ref="E199" r:id="rId197" xr:uid="{54FDB5C7-68DC-4D7D-B4DA-E3378BE67CC2}"/>
+    <hyperlink ref="E200" r:id="rId198" xr:uid="{2017F03F-9D31-4BB5-92D1-5CD3C4416893}"/>
+    <hyperlink ref="E201" r:id="rId199" xr:uid="{BAEDD7A2-4C8A-4820-9350-04F6625DCF71}"/>
+    <hyperlink ref="E202" r:id="rId200" xr:uid="{71CF08DF-753B-4BEB-930B-9A56B7A4B041}"/>
+    <hyperlink ref="E203" r:id="rId201" xr:uid="{D5D3E5FF-A2B1-4535-A0FF-FDAF54A74B5A}"/>
+    <hyperlink ref="E204" r:id="rId202" xr:uid="{8A0055F5-159D-4368-9218-D5200CC08D45}"/>
+    <hyperlink ref="E205" r:id="rId203" xr:uid="{41FC0160-BD3E-482B-B688-BD19BA74F55E}"/>
+    <hyperlink ref="E206" r:id="rId204" xr:uid="{22340817-B411-462C-A46E-E7DCD9B04F4C}"/>
+    <hyperlink ref="E207" r:id="rId205" xr:uid="{5C9BD5A6-2C55-4193-9B2A-1A8BB78655A5}"/>
+    <hyperlink ref="E208" r:id="rId206" xr:uid="{92704B9D-C136-4A1B-8C8B-0895EF421C30}"/>
+    <hyperlink ref="E209" r:id="rId207" xr:uid="{40023DAB-7DFC-4A8D-8DBF-9A692A71ED7F}"/>
+    <hyperlink ref="E210" r:id="rId208" xr:uid="{517FC737-6373-4000-85B1-DDF17B20C511}"/>
+    <hyperlink ref="E211" r:id="rId209" xr:uid="{3E97B22B-0242-441F-9669-BC7F444810D7}"/>
+    <hyperlink ref="E212" r:id="rId210" xr:uid="{368DDF2C-64A9-4ADE-9496-74506E8337EA}"/>
+    <hyperlink ref="E213" r:id="rId211" xr:uid="{102318F1-CB65-483B-90BC-47865D6F0DEA}"/>
+    <hyperlink ref="E214" r:id="rId212" xr:uid="{A1A15128-DDE7-495F-AC2C-F536C31967A9}"/>
+    <hyperlink ref="E215" r:id="rId213" xr:uid="{13F9997E-50AF-4304-A188-713CCDFAD8E8}"/>
+    <hyperlink ref="E216" r:id="rId214" xr:uid="{0491BD02-4A1B-40C3-BFDC-00BF6D4C1744}"/>
+    <hyperlink ref="E217" r:id="rId215" xr:uid="{E9028D92-7C52-49B6-BBA8-7B141FA3C042}"/>
+    <hyperlink ref="E218" r:id="rId216" xr:uid="{C4087F36-7FF0-47A2-A225-AA915000A507}"/>
+    <hyperlink ref="E219" r:id="rId217" xr:uid="{EFA4D272-811A-4030-BF0C-670DBF23497C}"/>
+    <hyperlink ref="E220" r:id="rId218" xr:uid="{12165E6C-CB4D-4340-A771-B9DEC64402E0}"/>
+    <hyperlink ref="E221" r:id="rId219" xr:uid="{75EB7C5B-F553-4682-8519-B2D0E1B3D53B}"/>
+    <hyperlink ref="E222" r:id="rId220" xr:uid="{6C5F8B03-EE41-4C31-81A1-52CC1BB7D5B9}"/>
+    <hyperlink ref="E223" r:id="rId221" xr:uid="{0784221D-242E-4A85-B35C-83767B4A5ABF}"/>
+    <hyperlink ref="E224" r:id="rId222" xr:uid="{54B00CF8-70AB-4232-822B-207F8953E182}"/>
+    <hyperlink ref="E225" r:id="rId223" xr:uid="{9A918059-1586-4893-934D-5C358D25B255}"/>
+    <hyperlink ref="E226" r:id="rId224" xr:uid="{6D83A45D-8F68-4446-AF65-0DF88C90B47B}"/>
+    <hyperlink ref="E227" r:id="rId225" xr:uid="{ADFA53AD-A727-42B2-8F99-8F3606050D17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/l_products.xlsx
+++ b/l_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01 USERS\SIMAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACBF16-2B69-4004-87AE-E4E00F492FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2A8B47-04C8-44F2-97CB-1FF19425DFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{515ADE29-0589-42A5-8948-64F4F872024C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="736">
   <si>
     <t>Name</t>
   </si>
@@ -1739,6 +1739,510 @@
   </si>
   <si>
     <t>SPOKY/A-5538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-5045 - M TO 2XL </t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xTSY5TCJ/Whats-App-Image-2025-08-11-at-15-10-59.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-8712 - M TO 4XL </t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HWMdb7p1/Whats-App-Image-2025-08-12-at-16-27-18.jpg</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8719 - M TO 3XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y957JtzP/Whats-App-Image-2025-08-12-at-16-27-20.jpg</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8705 - M TO 2XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/L5jSSGy8/Whats-App-Image-2025-08-12-at-16-34-19.jpg</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8721 - M TO 2XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/kgJCr1W7/Whats-App-Image-2025-08-12-at-17-18-02.jpg</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-8709 - M TO 2XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vZ0sGrvf/Whats-App-Image-2025-08-12-at-17-19-28.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURIST/A-1351A -L TO 2XL </t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/5tGWCfTt/Whats-App-Image-2025-08-19-at-11-23-40.jpg</t>
+  </si>
+  <si>
+    <t>FLOURIST/A-1051A - M TO 3XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xTRrPvhh/Whats-App-Image-2025-08-19-at-11-36-41.jpg</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3128 - M TO XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/135k7gZt/Whats-App-Image-2025-08-23-at-11-58-30.jpg</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-3114 - M TO XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/VkG3xYYF/Whats-App-Image-2025-08-23-at-11-58-32.jpg</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-5047 - M TO 2XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/cJvVZVCG/Whats-App-Image-2025-08-23-at-21-24-45.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI CULTURE/A-4001 - M TO 4XL </t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fb11bBSt/Whats-App-Image-2025-08-23-at-22-02-12.jpg</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE - M TO 2XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/prH7frZP/Whats-App-Image-2025-08-25-at-17-08-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/yd9t3c0f/Whats-App-Image-2025-08-25-at-17-08-13-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/J7NS13r0/Whats-App-Image-2025-08-25-at-17-08-14.jpg</t>
+  </si>
+  <si>
+    <t>SPOKY - M TO XXL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qvRFX986/Whats-App-Image-2025-08-30-at-13-37-51-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/q76ZWyDk/Whats-App-Image-2025-08-30-at-13-37-51-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Rh4s38SF/Whats-App-Image-2025-08-30-at-13-37-52.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mDQpgRGJ/Whats-App-Image-2025-08-30-at-13-37-52-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tT0mbJ8F/Whats-App-Image-2025-08-30-at-13-37-52-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/cChDfmCc/Whats-App-Image-2025-08-30-at-13-37-53.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RCLbrMdn/Whats-App-Image-2025-08-30-at-13-39-26.jpg</t>
+  </si>
+  <si>
+    <t>ANTI CULTURE/A-5052 - M TO 2XL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gkctmftt/Whats-App-Image-2025-08-30-at-22-51-51.jpg</t>
+  </si>
+  <si>
+    <t>FLOURIST</t>
+  </si>
+  <si>
+    <t>SPOKY</t>
+  </si>
+  <si>
+    <t>APPROX-350</t>
+  </si>
+  <si>
+    <t>APPROX-685</t>
+  </si>
+  <si>
+    <t>APPROX-655</t>
+  </si>
+  <si>
+    <t>APPROX-659</t>
+  </si>
+  <si>
+    <t>APPROX-713</t>
+  </si>
+  <si>
+    <t>APPROX-629</t>
+  </si>
+  <si>
+    <t>APPROX-611</t>
+  </si>
+  <si>
+    <t>APPROX-581</t>
+  </si>
+  <si>
+    <t>APPROX-731</t>
+  </si>
+  <si>
+    <t>APPROX-689</t>
+  </si>
+  <si>
+    <t>APPROX-850</t>
+  </si>
+  <si>
+    <t>APPROX-950</t>
+  </si>
+  <si>
+    <t>APPROX-1349</t>
+  </si>
+  <si>
+    <t>APPROX-1433</t>
+  </si>
+  <si>
+    <t>APPROX-1170</t>
+  </si>
+  <si>
+    <t>APPROX-875</t>
+  </si>
+  <si>
+    <t>APPROX-1097</t>
+  </si>
+  <si>
+    <t>APPROX-851</t>
+  </si>
+  <si>
+    <t>APPROX-1139</t>
+  </si>
+  <si>
+    <t>APPROX-1439</t>
+  </si>
+  <si>
+    <t>APPROX-1109</t>
+  </si>
+  <si>
+    <t>APPROX-500</t>
+  </si>
+  <si>
+    <t>APPROX-1079</t>
+  </si>
+  <si>
+    <t>APPROX-1499</t>
+  </si>
+  <si>
+    <t>APPROX-1535</t>
+  </si>
+  <si>
+    <t>APPROX-925</t>
+  </si>
+  <si>
+    <t>APPROX-1559</t>
+  </si>
+  <si>
+    <t>APPROX-1259</t>
+  </si>
+  <si>
+    <t>APPROX-1271</t>
+  </si>
+  <si>
+    <t>APPROX-1427</t>
+  </si>
+  <si>
+    <t>APPROX-1199</t>
+  </si>
+  <si>
+    <t>APPROX-539</t>
+  </si>
+  <si>
+    <t>APPROX-599</t>
+  </si>
+  <si>
+    <t>APPROX-1421</t>
+  </si>
+  <si>
+    <t>APPROX-750</t>
+  </si>
+  <si>
+    <t>APPROX-650</t>
+  </si>
+  <si>
+    <t>APPROX-497</t>
+  </si>
+  <si>
+    <t>APPROX-587</t>
+  </si>
+  <si>
+    <t>APPROX-548</t>
+  </si>
+  <si>
+    <t>APPROX-653</t>
+  </si>
+  <si>
+    <t>APPROX-575</t>
+  </si>
+  <si>
+    <t>APPROX-719</t>
+  </si>
+  <si>
+    <t>APPROX-617</t>
+  </si>
+  <si>
+    <t>APPROX-557</t>
+  </si>
+  <si>
+    <t>APPROX-677</t>
+  </si>
+  <si>
+    <t>APPROX-647</t>
+  </si>
+  <si>
+    <t>APPROX-375</t>
+  </si>
+  <si>
+    <t>APPROX-527</t>
+  </si>
+  <si>
+    <t>APPROX-635</t>
+  </si>
+  <si>
+    <t>APPROX-400</t>
+  </si>
+  <si>
+    <t>APPROX-569</t>
+  </si>
+  <si>
+    <t>APPROX-390</t>
+  </si>
+  <si>
+    <t>APPROX-425</t>
+  </si>
+  <si>
+    <t>APPROX-449</t>
+  </si>
+  <si>
+    <t>APPROX-695</t>
+  </si>
+  <si>
+    <t>APPROX-563</t>
+  </si>
+  <si>
+    <t>APPROX-450</t>
+  </si>
+  <si>
+    <t>APPROX-630</t>
+  </si>
+  <si>
+    <t>APPROX-473</t>
+  </si>
+  <si>
+    <t>APPROX-455</t>
+  </si>
+  <si>
+    <t>APPROX-743</t>
+  </si>
+  <si>
+    <t>APPROX-347</t>
+  </si>
+  <si>
+    <t>APPROX-395</t>
+  </si>
+  <si>
+    <t>APPROX-550</t>
+  </si>
+  <si>
+    <t>APPROX-900</t>
+  </si>
+  <si>
+    <t>APPROX-475</t>
+  </si>
+  <si>
+    <t>APPROX-600</t>
+  </si>
+  <si>
+    <t>APPROX-1250</t>
+  </si>
+  <si>
+    <t>APPROX-1450</t>
+  </si>
+  <si>
+    <t>APPROX-1100</t>
+  </si>
+  <si>
+    <t>APPROX-1795</t>
+  </si>
+  <si>
+    <t>APPROX-495</t>
+  </si>
+  <si>
+    <t>APPROX-480</t>
+  </si>
+  <si>
+    <t>APPROX-1200</t>
+  </si>
+  <si>
+    <t>APPROX-930</t>
+  </si>
+  <si>
+    <t>APPROX-840</t>
+  </si>
+  <si>
+    <t>APPROX-1290</t>
+  </si>
+  <si>
+    <t>APPROX-1490</t>
+  </si>
+  <si>
+    <t>APPROX-1050</t>
+  </si>
+  <si>
+    <t>APPROX-995</t>
+  </si>
+  <si>
+    <t>APPROX-935</t>
+  </si>
+  <si>
+    <t>APPROX-670</t>
+  </si>
+  <si>
+    <t>APPROX-1637</t>
+  </si>
+  <si>
+    <t>APPROX-510</t>
+  </si>
+  <si>
+    <t>APPROX-690</t>
+  </si>
+  <si>
+    <t>APPROX-680</t>
+  </si>
+  <si>
+    <t>APPROX-625</t>
+  </si>
+  <si>
+    <t>APPROX-765</t>
+  </si>
+  <si>
+    <t>APPROX-1190</t>
+  </si>
+  <si>
+    <t>APPROX-720</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tTpwdJBF/Whats-App-Image-2025-08-27-at-12-19-25.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/J0hFggVn/Whats-App-Image-2025-08-27-at-12-19-26.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sXm8TzLq/Whats-App-Image-2025-08-27-at-12-20-01.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y2XZgpYm/Whats-App-Image-2025-08-27-at-12-20-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/kXBZvkvY/Whats-App-Image-2025-08-27-at-12-20-24.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dtpfH4Ws/Whats-App-Image-2025-09-02-at-14-15-09.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/9Q9nvZSG/Whats-App-Image-2025-09-02-at-14-15-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1zZjP4hb/Whats-App-Image-2025-09-02-at-14-15-18.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pdY1dxPr/Whats-App-Image-2025-09-02-at-14-15-30.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/76HtGcLV/Whats-App-Image-2025-09-02-at-14-15-41.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/W35WMnFP/Whats-App-Image-2025-09-02-at-14-16-26.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fykH59mS/Whats-App-Image-2025-09-02-at-14-16-32.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/VvTKhkWG/Whats-App-Image-2025-09-03-at-13-06-33.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/WpfYz5cG/Whats-App-Image-2025-09-03-at-13-06-35.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GhWMJ929/Whats-App-Image-2025-09-03-at-13-06-41.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/9QyLxVRb/Whats-App-Image-2025-09-03-at-13-06-47.jpg</t>
+  </si>
+  <si>
+    <t>WARINO - M TO XXL</t>
+  </si>
+  <si>
+    <t>WARINO</t>
+  </si>
+  <si>
+    <t>TEACHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEACHER </t>
+  </si>
+  <si>
+    <t>TEACHER - LONG</t>
+  </si>
+  <si>
+    <t>TEACHER -LONG</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1XQW13gJ/Whats-App-Image-2025-08-26-at-13-22-36.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FzVTrX3m/Whats-App-Image-2025-08-26-at-13-22-53.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/kX7jjDP5/Whats-App-Image-2025-08-26-at-13-23-03.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SNVgHqmf/Whats-App-Image-2025-08-26-at-13-23-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HWwZ4XKK/Whats-App-Image-2025-08-26-at-13-23-20.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pLTsH7Tb/Whats-App-Image-2025-08-26-at-13-23-27.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Njzpf49y/Whats-App-Image-2025-08-26-at-13-23-33.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/CKnJZqkc/Whats-App-Image-2025-08-26-at-13-23-39.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/d1M6GV9w/Whats-App-Image-2025-08-26-at-13-23-51.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SsWrdbZ8/Whats-App-Image-2025-08-26-at-13-24-02.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/rsM9YZbH/Whats-App-Image-2025-08-26-at-13-24-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/rsj96C2w/Whats-App-Image-2025-08-26-at-13-24-32.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fTWKcFYt/Whats-App-Image-2025-08-26-at-13-24-45.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIGMA /A-2141 </t>
+  </si>
+  <si>
+    <t>ZIGMA</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2110,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE43F56-F1DF-4EC8-BFCF-B9051A250447}">
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2147,8 +2651,8 @@
       <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="C2">
-        <v>350</v>
+      <c r="C2" t="s">
+        <v>608</v>
       </c>
       <c r="D2" t="s">
         <v>187</v>
@@ -2164,8 +2668,8 @@
       <c r="B3" t="s">
         <v>188</v>
       </c>
-      <c r="C3">
-        <v>350</v>
+      <c r="C3" t="s">
+        <v>608</v>
       </c>
       <c r="D3" t="s">
         <v>187</v>
@@ -2181,8 +2685,8 @@
       <c r="B4" t="s">
         <v>188</v>
       </c>
-      <c r="C4">
-        <v>350</v>
+      <c r="C4" t="s">
+        <v>608</v>
       </c>
       <c r="D4" t="s">
         <v>190</v>
@@ -2198,8 +2702,8 @@
       <c r="B5" t="s">
         <v>188</v>
       </c>
-      <c r="C5">
-        <v>350</v>
+      <c r="C5" t="s">
+        <v>608</v>
       </c>
       <c r="D5" t="s">
         <v>187</v>
@@ -2215,8 +2719,8 @@
       <c r="B6" t="s">
         <v>188</v>
       </c>
-      <c r="C6">
-        <v>350</v>
+      <c r="C6" t="s">
+        <v>608</v>
       </c>
       <c r="D6" t="s">
         <v>190</v>
@@ -2232,8 +2736,8 @@
       <c r="B7" t="s">
         <v>188</v>
       </c>
-      <c r="C7">
-        <v>350</v>
+      <c r="C7" t="s">
+        <v>608</v>
       </c>
       <c r="D7" t="s">
         <v>192</v>
@@ -2249,8 +2753,8 @@
       <c r="B8" t="s">
         <v>188</v>
       </c>
-      <c r="C8">
-        <v>350</v>
+      <c r="C8" t="s">
+        <v>608</v>
       </c>
       <c r="D8" t="s">
         <v>193</v>
@@ -2266,8 +2770,8 @@
       <c r="B9" t="s">
         <v>195</v>
       </c>
-      <c r="C9">
-        <v>685</v>
+      <c r="C9" t="s">
+        <v>609</v>
       </c>
       <c r="D9" t="s">
         <v>194</v>
@@ -2283,8 +2787,8 @@
       <c r="B10" t="s">
         <v>195</v>
       </c>
-      <c r="C10">
-        <v>655</v>
+      <c r="C10" t="s">
+        <v>610</v>
       </c>
       <c r="D10" t="s">
         <v>197</v>
@@ -2300,8 +2804,8 @@
       <c r="B11" t="s">
         <v>195</v>
       </c>
-      <c r="C11">
-        <v>659</v>
+      <c r="C11" t="s">
+        <v>611</v>
       </c>
       <c r="D11" t="s">
         <v>199</v>
@@ -2317,8 +2821,8 @@
       <c r="B12" t="s">
         <v>195</v>
       </c>
-      <c r="C12">
-        <v>713</v>
+      <c r="C12" t="s">
+        <v>612</v>
       </c>
       <c r="D12" t="s">
         <v>201</v>
@@ -2334,8 +2838,8 @@
       <c r="B13" t="s">
         <v>195</v>
       </c>
-      <c r="C13">
-        <v>629</v>
+      <c r="C13" t="s">
+        <v>613</v>
       </c>
       <c r="D13" t="s">
         <v>203</v>
@@ -2351,8 +2855,8 @@
       <c r="B14" t="s">
         <v>195</v>
       </c>
-      <c r="C14">
-        <v>611</v>
+      <c r="C14" t="s">
+        <v>614</v>
       </c>
       <c r="D14" t="s">
         <v>205</v>
@@ -2368,8 +2872,8 @@
       <c r="B15" t="s">
         <v>195</v>
       </c>
-      <c r="C15">
-        <v>581</v>
+      <c r="C15" t="s">
+        <v>615</v>
       </c>
       <c r="D15" t="s">
         <v>207</v>
@@ -2385,8 +2889,8 @@
       <c r="B16" t="s">
         <v>195</v>
       </c>
-      <c r="C16">
-        <v>731</v>
+      <c r="C16" t="s">
+        <v>616</v>
       </c>
       <c r="D16" t="s">
         <v>209</v>
@@ -2402,8 +2906,8 @@
       <c r="B17" t="s">
         <v>195</v>
       </c>
-      <c r="C17">
-        <v>689</v>
+      <c r="C17" t="s">
+        <v>617</v>
       </c>
       <c r="D17" t="s">
         <v>211</v>
@@ -2419,8 +2923,8 @@
       <c r="B18" t="s">
         <v>195</v>
       </c>
-      <c r="C18">
-        <v>581</v>
+      <c r="C18" t="s">
+        <v>615</v>
       </c>
       <c r="D18" t="s">
         <v>213</v>
@@ -2436,8 +2940,8 @@
       <c r="B19" t="s">
         <v>195</v>
       </c>
-      <c r="C19">
-        <v>689</v>
+      <c r="C19" t="s">
+        <v>617</v>
       </c>
       <c r="D19" t="s">
         <v>214</v>
@@ -2453,8 +2957,8 @@
       <c r="B20" t="s">
         <v>216</v>
       </c>
-      <c r="C20">
-        <v>850</v>
+      <c r="C20" t="s">
+        <v>618</v>
       </c>
       <c r="D20" t="s">
         <v>218</v>
@@ -2470,8 +2974,8 @@
       <c r="B21" t="s">
         <v>220</v>
       </c>
-      <c r="C21">
-        <v>950</v>
+      <c r="C21" t="s">
+        <v>619</v>
       </c>
       <c r="D21" t="s">
         <v>219</v>
@@ -2487,8 +2991,8 @@
       <c r="B22" t="s">
         <v>220</v>
       </c>
-      <c r="C22">
-        <v>1349</v>
+      <c r="C22" t="s">
+        <v>620</v>
       </c>
       <c r="D22" t="s">
         <v>222</v>
@@ -2504,8 +3008,8 @@
       <c r="B23" t="s">
         <v>220</v>
       </c>
-      <c r="C23">
-        <v>1433</v>
+      <c r="C23" t="s">
+        <v>621</v>
       </c>
       <c r="D23" t="s">
         <v>224</v>
@@ -2521,8 +3025,8 @@
       <c r="B24" t="s">
         <v>227</v>
       </c>
-      <c r="C24">
-        <v>1170</v>
+      <c r="C24" t="s">
+        <v>622</v>
       </c>
       <c r="D24" t="s">
         <v>226</v>
@@ -2538,8 +3042,8 @@
       <c r="B25" t="s">
         <v>230</v>
       </c>
-      <c r="C25">
-        <v>611</v>
+      <c r="C25" t="s">
+        <v>614</v>
       </c>
       <c r="D25" t="s">
         <v>229</v>
@@ -2555,8 +3059,8 @@
       <c r="B26" t="s">
         <v>230</v>
       </c>
-      <c r="C26">
-        <v>659</v>
+      <c r="C26" t="s">
+        <v>611</v>
       </c>
       <c r="D26" t="s">
         <v>232</v>
@@ -2572,8 +3076,8 @@
       <c r="B27" t="s">
         <v>220</v>
       </c>
-      <c r="C27">
-        <v>875</v>
+      <c r="C27" t="s">
+        <v>623</v>
       </c>
       <c r="D27" t="s">
         <v>234</v>
@@ -2589,8 +3093,8 @@
       <c r="B28" t="s">
         <v>220</v>
       </c>
-      <c r="C28">
-        <v>1097</v>
+      <c r="C28" t="s">
+        <v>624</v>
       </c>
       <c r="D28" t="s">
         <v>236</v>
@@ -2606,8 +3110,8 @@
       <c r="B29" t="s">
         <v>220</v>
       </c>
-      <c r="C29">
-        <v>851</v>
+      <c r="C29" t="s">
+        <v>625</v>
       </c>
       <c r="D29" t="s">
         <v>238</v>
@@ -2623,8 +3127,8 @@
       <c r="B30" t="s">
         <v>220</v>
       </c>
-      <c r="C30">
-        <v>1139</v>
+      <c r="C30" t="s">
+        <v>626</v>
       </c>
       <c r="D30" t="s">
         <v>240</v>
@@ -2640,8 +3144,8 @@
       <c r="B31" t="s">
         <v>220</v>
       </c>
-      <c r="C31">
-        <v>1439</v>
+      <c r="C31" t="s">
+        <v>627</v>
       </c>
       <c r="D31" t="s">
         <v>242</v>
@@ -2657,8 +3161,8 @@
       <c r="B32" t="s">
         <v>220</v>
       </c>
-      <c r="C32">
-        <v>1109</v>
+      <c r="C32" t="s">
+        <v>628</v>
       </c>
       <c r="D32" t="s">
         <v>244</v>
@@ -2674,8 +3178,8 @@
       <c r="B33" t="s">
         <v>216</v>
       </c>
-      <c r="C33">
-        <v>500</v>
+      <c r="C33" t="s">
+        <v>629</v>
       </c>
       <c r="D33" t="s">
         <v>246</v>
@@ -2691,8 +3195,8 @@
       <c r="B34" t="s">
         <v>216</v>
       </c>
-      <c r="C34">
-        <v>500</v>
+      <c r="C34" t="s">
+        <v>629</v>
       </c>
       <c r="D34" t="s">
         <v>246</v>
@@ -2708,8 +3212,8 @@
       <c r="B35" t="s">
         <v>216</v>
       </c>
-      <c r="C35">
-        <v>500</v>
+      <c r="C35" t="s">
+        <v>629</v>
       </c>
       <c r="D35" t="s">
         <v>246</v>
@@ -2725,8 +3229,8 @@
       <c r="B36" t="s">
         <v>220</v>
       </c>
-      <c r="C36">
-        <v>1079</v>
+      <c r="C36" t="s">
+        <v>630</v>
       </c>
       <c r="D36" t="s">
         <v>248</v>
@@ -2742,8 +3246,8 @@
       <c r="B37" t="s">
         <v>220</v>
       </c>
-      <c r="C37">
-        <v>1499</v>
+      <c r="C37" t="s">
+        <v>631</v>
       </c>
       <c r="D37" t="s">
         <v>250</v>
@@ -2759,8 +3263,8 @@
       <c r="B38" t="s">
         <v>220</v>
       </c>
-      <c r="C38">
-        <v>1535</v>
+      <c r="C38" t="s">
+        <v>632</v>
       </c>
       <c r="D38" t="s">
         <v>252</v>
@@ -2776,8 +3280,8 @@
       <c r="B39" t="s">
         <v>220</v>
       </c>
-      <c r="C39">
-        <v>925</v>
+      <c r="C39" t="s">
+        <v>633</v>
       </c>
       <c r="D39" t="s">
         <v>254</v>
@@ -2793,8 +3297,8 @@
       <c r="B40" t="s">
         <v>220</v>
       </c>
-      <c r="C40">
-        <v>1559</v>
+      <c r="C40" t="s">
+        <v>634</v>
       </c>
       <c r="D40" t="s">
         <v>256</v>
@@ -2810,8 +3314,8 @@
       <c r="B41" t="s">
         <v>216</v>
       </c>
-      <c r="C41">
-        <v>950</v>
+      <c r="C41" t="s">
+        <v>619</v>
       </c>
       <c r="D41" t="s">
         <v>258</v>
@@ -2827,8 +3331,8 @@
       <c r="B42" t="s">
         <v>216</v>
       </c>
-      <c r="C42">
-        <v>925</v>
+      <c r="C42" t="s">
+        <v>633</v>
       </c>
       <c r="D42" t="s">
         <v>260</v>
@@ -2844,8 +3348,8 @@
       <c r="B43" t="s">
         <v>220</v>
       </c>
-      <c r="C43">
-        <v>1259</v>
+      <c r="C43" t="s">
+        <v>635</v>
       </c>
       <c r="D43" t="s">
         <v>262</v>
@@ -2861,8 +3365,8 @@
       <c r="B44" t="s">
         <v>220</v>
       </c>
-      <c r="C44">
-        <v>1271</v>
+      <c r="C44" t="s">
+        <v>636</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -2878,8 +3382,8 @@
       <c r="B45" t="s">
         <v>220</v>
       </c>
-      <c r="C45">
-        <v>1427</v>
+      <c r="C45" t="s">
+        <v>637</v>
       </c>
       <c r="D45" t="s">
         <v>266</v>
@@ -2895,8 +3399,8 @@
       <c r="B46" t="s">
         <v>220</v>
       </c>
-      <c r="C46">
-        <v>1079</v>
+      <c r="C46" t="s">
+        <v>630</v>
       </c>
       <c r="D46" t="s">
         <v>268</v>
@@ -2912,8 +3416,8 @@
       <c r="B47" t="s">
         <v>216</v>
       </c>
-      <c r="C47">
-        <v>950</v>
+      <c r="C47" t="s">
+        <v>619</v>
       </c>
       <c r="D47" t="s">
         <v>218</v>
@@ -2929,8 +3433,8 @@
       <c r="B48" t="s">
         <v>220</v>
       </c>
-      <c r="C48">
-        <v>1199</v>
+      <c r="C48" t="s">
+        <v>638</v>
       </c>
       <c r="D48" t="s">
         <v>270</v>
@@ -2946,8 +3450,8 @@
       <c r="B49" t="s">
         <v>220</v>
       </c>
-      <c r="C49">
-        <v>539</v>
+      <c r="C49" t="s">
+        <v>639</v>
       </c>
       <c r="D49" t="s">
         <v>272</v>
@@ -2963,8 +3467,8 @@
       <c r="B50" t="s">
         <v>220</v>
       </c>
-      <c r="C50">
-        <v>599</v>
+      <c r="C50" t="s">
+        <v>640</v>
       </c>
       <c r="D50" t="s">
         <v>274</v>
@@ -2980,8 +3484,8 @@
       <c r="B51" t="s">
         <v>220</v>
       </c>
-      <c r="C51">
-        <v>1421</v>
+      <c r="C51" t="s">
+        <v>641</v>
       </c>
       <c r="D51" t="s">
         <v>276</v>
@@ -2997,8 +3501,8 @@
       <c r="B52" t="s">
         <v>220</v>
       </c>
-      <c r="C52">
-        <v>1079</v>
+      <c r="C52" t="s">
+        <v>630</v>
       </c>
       <c r="D52" t="s">
         <v>248</v>
@@ -3014,8 +3518,8 @@
       <c r="B53" t="s">
         <v>280</v>
       </c>
-      <c r="C53">
-        <v>750</v>
+      <c r="C53" t="s">
+        <v>642</v>
       </c>
       <c r="D53" t="s">
         <v>278</v>
@@ -3031,8 +3535,8 @@
       <c r="B54" t="s">
         <v>280</v>
       </c>
-      <c r="C54">
-        <v>850</v>
+      <c r="C54" t="s">
+        <v>618</v>
       </c>
       <c r="D54" t="s">
         <v>278</v>
@@ -3048,8 +3552,8 @@
       <c r="B55" t="s">
         <v>280</v>
       </c>
-      <c r="C55">
-        <v>650</v>
+      <c r="C55" t="s">
+        <v>643</v>
       </c>
       <c r="D55" t="s">
         <v>278</v>
@@ -3065,8 +3569,8 @@
       <c r="B56" t="s">
         <v>280</v>
       </c>
-      <c r="C56">
-        <v>950</v>
+      <c r="C56" t="s">
+        <v>619</v>
       </c>
       <c r="D56" t="s">
         <v>278</v>
@@ -3082,8 +3586,8 @@
       <c r="B57" t="s">
         <v>282</v>
       </c>
-      <c r="C57">
-        <v>659</v>
+      <c r="C57" t="s">
+        <v>611</v>
       </c>
       <c r="D57" t="s">
         <v>281</v>
@@ -3099,8 +3603,8 @@
       <c r="B58" t="s">
         <v>282</v>
       </c>
-      <c r="C58">
-        <v>497</v>
+      <c r="C58" t="s">
+        <v>644</v>
       </c>
       <c r="D58" t="s">
         <v>284</v>
@@ -3116,8 +3620,8 @@
       <c r="B59" t="s">
         <v>282</v>
       </c>
-      <c r="C59">
-        <v>587</v>
+      <c r="C59" t="s">
+        <v>645</v>
       </c>
       <c r="D59" t="s">
         <v>286</v>
@@ -3133,8 +3637,8 @@
       <c r="B60" t="s">
         <v>282</v>
       </c>
-      <c r="C60">
-        <v>548</v>
+      <c r="C60" t="s">
+        <v>646</v>
       </c>
       <c r="D60" t="s">
         <v>288</v>
@@ -3150,8 +3654,8 @@
       <c r="B61" t="s">
         <v>282</v>
       </c>
-      <c r="C61">
-        <v>653</v>
+      <c r="C61" t="s">
+        <v>647</v>
       </c>
       <c r="D61" t="s">
         <v>290</v>
@@ -3167,8 +3671,8 @@
       <c r="B62" t="s">
         <v>282</v>
       </c>
-      <c r="C62">
-        <v>575</v>
+      <c r="C62" t="s">
+        <v>648</v>
       </c>
       <c r="D62" t="s">
         <v>292</v>
@@ -3184,8 +3688,8 @@
       <c r="B63" t="s">
         <v>280</v>
       </c>
-      <c r="C63">
-        <v>719</v>
+      <c r="C63" t="s">
+        <v>649</v>
       </c>
       <c r="D63" t="s">
         <v>294</v>
@@ -3201,8 +3705,8 @@
       <c r="B64" t="s">
         <v>282</v>
       </c>
-      <c r="C64">
-        <v>497</v>
+      <c r="C64" t="s">
+        <v>644</v>
       </c>
       <c r="D64" t="s">
         <v>295</v>
@@ -3218,8 +3722,8 @@
       <c r="B65" t="s">
         <v>282</v>
       </c>
-      <c r="C65">
-        <v>617</v>
+      <c r="C65" t="s">
+        <v>650</v>
       </c>
       <c r="D65" t="s">
         <v>297</v>
@@ -3235,8 +3739,8 @@
       <c r="B66" t="s">
         <v>282</v>
       </c>
-      <c r="C66">
-        <v>575</v>
+      <c r="C66" t="s">
+        <v>648</v>
       </c>
       <c r="D66" t="s">
         <v>299</v>
@@ -3252,8 +3756,8 @@
       <c r="B67" t="s">
         <v>282</v>
       </c>
-      <c r="C67">
-        <v>575</v>
+      <c r="C67" t="s">
+        <v>648</v>
       </c>
       <c r="D67" t="s">
         <v>301</v>
@@ -3269,8 +3773,8 @@
       <c r="B68" t="s">
         <v>282</v>
       </c>
-      <c r="C68">
-        <v>557</v>
+      <c r="C68" t="s">
+        <v>651</v>
       </c>
       <c r="D68" t="s">
         <v>302</v>
@@ -3286,8 +3790,8 @@
       <c r="B69" t="s">
         <v>282</v>
       </c>
-      <c r="C69">
-        <v>575</v>
+      <c r="C69" t="s">
+        <v>648</v>
       </c>
       <c r="D69" t="s">
         <v>304</v>
@@ -3303,8 +3807,8 @@
       <c r="B70" t="s">
         <v>280</v>
       </c>
-      <c r="C70">
-        <v>677</v>
+      <c r="C70" t="s">
+        <v>652</v>
       </c>
       <c r="D70" t="s">
         <v>306</v>
@@ -3320,8 +3824,8 @@
       <c r="B71" t="s">
         <v>282</v>
       </c>
-      <c r="C71">
-        <v>647</v>
+      <c r="C71" t="s">
+        <v>653</v>
       </c>
       <c r="D71" t="s">
         <v>308</v>
@@ -3337,8 +3841,8 @@
       <c r="B72" t="s">
         <v>280</v>
       </c>
-      <c r="C72">
-        <v>719</v>
+      <c r="C72" t="s">
+        <v>649</v>
       </c>
       <c r="D72" t="s">
         <v>294</v>
@@ -3354,8 +3858,8 @@
       <c r="B73" t="s">
         <v>282</v>
       </c>
-      <c r="C73">
-        <v>548</v>
+      <c r="C73" t="s">
+        <v>646</v>
       </c>
       <c r="D73" t="s">
         <v>288</v>
@@ -3371,8 +3875,8 @@
       <c r="B74" t="s">
         <v>282</v>
       </c>
-      <c r="C74">
-        <v>617</v>
+      <c r="C74" t="s">
+        <v>650</v>
       </c>
       <c r="D74" t="s">
         <v>309</v>
@@ -3388,8 +3892,8 @@
       <c r="B75" t="s">
         <v>282</v>
       </c>
-      <c r="C75">
-        <v>375</v>
+      <c r="C75" t="s">
+        <v>654</v>
       </c>
       <c r="D75" t="s">
         <v>311</v>
@@ -3405,8 +3909,8 @@
       <c r="B76" t="s">
         <v>282</v>
       </c>
-      <c r="C76">
-        <v>527</v>
+      <c r="C76" t="s">
+        <v>655</v>
       </c>
       <c r="D76" t="s">
         <v>313</v>
@@ -3422,8 +3926,8 @@
       <c r="B77" t="s">
         <v>282</v>
       </c>
-      <c r="C77">
-        <v>375</v>
+      <c r="C77" t="s">
+        <v>654</v>
       </c>
       <c r="D77" t="s">
         <v>315</v>
@@ -3439,8 +3943,8 @@
       <c r="B78" t="s">
         <v>282</v>
       </c>
-      <c r="C78">
-        <v>375</v>
+      <c r="C78" t="s">
+        <v>654</v>
       </c>
       <c r="D78" t="s">
         <v>314</v>
@@ -3456,8 +3960,8 @@
       <c r="B79" t="s">
         <v>282</v>
       </c>
-      <c r="C79">
-        <v>375</v>
+      <c r="C79" t="s">
+        <v>654</v>
       </c>
       <c r="D79" t="s">
         <v>315</v>
@@ -3473,8 +3977,8 @@
       <c r="B80" t="s">
         <v>282</v>
       </c>
-      <c r="C80">
-        <v>375</v>
+      <c r="C80" t="s">
+        <v>654</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -3490,8 +3994,8 @@
       <c r="B81" t="s">
         <v>282</v>
       </c>
-      <c r="C81">
-        <v>375</v>
+      <c r="C81" t="s">
+        <v>654</v>
       </c>
       <c r="D81" t="s">
         <v>314</v>
@@ -3507,8 +4011,8 @@
       <c r="B82" t="s">
         <v>282</v>
       </c>
-      <c r="C82">
-        <v>375</v>
+      <c r="C82" t="s">
+        <v>654</v>
       </c>
       <c r="D82" t="s">
         <v>321</v>
@@ -3524,8 +4028,8 @@
       <c r="B83" t="s">
         <v>280</v>
       </c>
-      <c r="C83">
-        <v>635</v>
+      <c r="C83" t="s">
+        <v>656</v>
       </c>
       <c r="D83" t="s">
         <v>323</v>
@@ -3541,8 +4045,8 @@
       <c r="B84" t="s">
         <v>282</v>
       </c>
-      <c r="C84">
-        <v>375</v>
+      <c r="C84" t="s">
+        <v>654</v>
       </c>
       <c r="D84" t="s">
         <v>324</v>
@@ -3558,8 +4062,8 @@
       <c r="B85" t="s">
         <v>282</v>
       </c>
-      <c r="C85">
-        <v>375</v>
+      <c r="C85" t="s">
+        <v>654</v>
       </c>
       <c r="D85" t="s">
         <v>326</v>
@@ -3575,8 +4079,8 @@
       <c r="B86" t="s">
         <v>282</v>
       </c>
-      <c r="C86">
-        <v>599</v>
+      <c r="C86" t="s">
+        <v>640</v>
       </c>
       <c r="D86" t="s">
         <v>328</v>
@@ -3592,8 +4096,8 @@
       <c r="B87" t="s">
         <v>282</v>
       </c>
-      <c r="C87">
-        <v>375</v>
+      <c r="C87" t="s">
+        <v>654</v>
       </c>
       <c r="D87" t="s">
         <v>330</v>
@@ -3609,8 +4113,8 @@
       <c r="B88" t="s">
         <v>282</v>
       </c>
-      <c r="C88">
-        <v>375</v>
+      <c r="C88" t="s">
+        <v>654</v>
       </c>
       <c r="D88" t="s">
         <v>330</v>
@@ -3626,8 +4130,8 @@
       <c r="B89" t="s">
         <v>280</v>
       </c>
-      <c r="C89">
-        <v>400</v>
+      <c r="C89" t="s">
+        <v>657</v>
       </c>
       <c r="D89" t="s">
         <v>331</v>
@@ -3643,8 +4147,8 @@
       <c r="B90" t="s">
         <v>280</v>
       </c>
-      <c r="C90">
-        <v>587</v>
+      <c r="C90" t="s">
+        <v>645</v>
       </c>
       <c r="D90" t="s">
         <v>333</v>
@@ -3660,8 +4164,8 @@
       <c r="B91" t="s">
         <v>280</v>
       </c>
-      <c r="C91">
-        <v>677</v>
+      <c r="C91" t="s">
+        <v>652</v>
       </c>
       <c r="D91" t="s">
         <v>335</v>
@@ -3677,8 +4181,8 @@
       <c r="B92" t="s">
         <v>282</v>
       </c>
-      <c r="C92">
-        <v>375</v>
+      <c r="C92" t="s">
+        <v>654</v>
       </c>
       <c r="D92" t="s">
         <v>324</v>
@@ -3694,8 +4198,8 @@
       <c r="B93" t="s">
         <v>282</v>
       </c>
-      <c r="C93">
-        <v>1079</v>
+      <c r="C93" t="s">
+        <v>630</v>
       </c>
       <c r="D93" t="s">
         <v>336</v>
@@ -3711,8 +4215,8 @@
       <c r="B94" t="s">
         <v>282</v>
       </c>
-      <c r="C94">
-        <v>375</v>
+      <c r="C94" t="s">
+        <v>654</v>
       </c>
       <c r="D94" t="s">
         <v>324</v>
@@ -3728,8 +4232,8 @@
       <c r="B95" t="s">
         <v>282</v>
       </c>
-      <c r="C95">
-        <v>375</v>
+      <c r="C95" t="s">
+        <v>654</v>
       </c>
       <c r="D95" t="s">
         <v>338</v>
@@ -3745,8 +4249,8 @@
       <c r="B96" t="s">
         <v>282</v>
       </c>
-      <c r="C96">
-        <v>569</v>
+      <c r="C96" t="s">
+        <v>658</v>
       </c>
       <c r="D96" t="s">
         <v>340</v>
@@ -3762,8 +4266,8 @@
       <c r="B97" t="s">
         <v>282</v>
       </c>
-      <c r="C97">
-        <v>629</v>
+      <c r="C97" t="s">
+        <v>613</v>
       </c>
       <c r="D97" t="s">
         <v>342</v>
@@ -3779,8 +4283,8 @@
       <c r="B98" t="s">
         <v>282</v>
       </c>
-      <c r="C98">
-        <v>390</v>
+      <c r="C98" t="s">
+        <v>659</v>
       </c>
       <c r="D98" t="s">
         <v>344</v>
@@ -3796,8 +4300,8 @@
       <c r="B99" t="s">
         <v>282</v>
       </c>
-      <c r="C99">
-        <v>425</v>
+      <c r="C99" t="s">
+        <v>660</v>
       </c>
       <c r="D99" t="s">
         <v>258</v>
@@ -3813,8 +4317,8 @@
       <c r="B100" t="s">
         <v>280</v>
       </c>
-      <c r="C100">
-        <v>569</v>
+      <c r="C100" t="s">
+        <v>658</v>
       </c>
       <c r="D100" t="s">
         <v>346</v>
@@ -3830,8 +4334,8 @@
       <c r="B101" t="s">
         <v>280</v>
       </c>
-      <c r="C101">
-        <v>539</v>
+      <c r="C101" t="s">
+        <v>639</v>
       </c>
       <c r="D101" t="s">
         <v>348</v>
@@ -3847,8 +4351,8 @@
       <c r="B102" t="s">
         <v>195</v>
       </c>
-      <c r="C102">
-        <v>647</v>
+      <c r="C102" t="s">
+        <v>653</v>
       </c>
       <c r="D102" t="s">
         <v>350</v>
@@ -3864,8 +4368,8 @@
       <c r="B103" t="s">
         <v>282</v>
       </c>
-      <c r="C103">
-        <v>449</v>
+      <c r="C103" t="s">
+        <v>661</v>
       </c>
       <c r="D103" t="s">
         <v>352</v>
@@ -3881,8 +4385,8 @@
       <c r="B104" t="s">
         <v>282</v>
       </c>
-      <c r="C104">
-        <v>557</v>
+      <c r="C104" t="s">
+        <v>651</v>
       </c>
       <c r="D104" t="s">
         <v>354</v>
@@ -3898,8 +4402,8 @@
       <c r="B105" t="s">
         <v>282</v>
       </c>
-      <c r="C105">
-        <v>497</v>
+      <c r="C105" t="s">
+        <v>644</v>
       </c>
       <c r="D105" t="s">
         <v>357</v>
@@ -3915,8 +4419,8 @@
       <c r="B106" t="s">
         <v>355</v>
       </c>
-      <c r="C106">
-        <v>695</v>
+      <c r="C106" t="s">
+        <v>662</v>
       </c>
       <c r="D106" t="s">
         <v>359</v>
@@ -3932,8 +4436,8 @@
       <c r="B107" t="s">
         <v>355</v>
       </c>
-      <c r="C107">
-        <v>647</v>
+      <c r="C107" t="s">
+        <v>653</v>
       </c>
       <c r="D107" t="s">
         <v>361</v>
@@ -3949,8 +4453,8 @@
       <c r="B108" t="s">
         <v>282</v>
       </c>
-      <c r="C108">
-        <v>500</v>
+      <c r="C108" t="s">
+        <v>629</v>
       </c>
       <c r="D108" t="s">
         <v>363</v>
@@ -3966,8 +4470,8 @@
       <c r="B109" t="s">
         <v>282</v>
       </c>
-      <c r="C109">
-        <v>563</v>
+      <c r="C109" t="s">
+        <v>663</v>
       </c>
       <c r="D109" t="s">
         <v>365</v>
@@ -3983,8 +4487,8 @@
       <c r="B110" t="s">
         <v>282</v>
       </c>
-      <c r="C110">
-        <v>500</v>
+      <c r="C110" t="s">
+        <v>629</v>
       </c>
       <c r="D110" t="s">
         <v>367</v>
@@ -4000,8 +4504,8 @@
       <c r="B111" t="s">
         <v>282</v>
       </c>
-      <c r="C111">
-        <v>450</v>
+      <c r="C111" t="s">
+        <v>664</v>
       </c>
       <c r="D111" t="s">
         <v>369</v>
@@ -4017,8 +4521,8 @@
       <c r="B112" t="s">
         <v>355</v>
       </c>
-      <c r="C112">
-        <v>630</v>
+      <c r="C112" t="s">
+        <v>665</v>
       </c>
       <c r="D112" t="s">
         <v>371</v>
@@ -4034,8 +4538,8 @@
       <c r="B113" t="s">
         <v>282</v>
       </c>
-      <c r="C113">
-        <v>473</v>
+      <c r="C113" t="s">
+        <v>666</v>
       </c>
       <c r="D113" t="s">
         <v>373</v>
@@ -4051,8 +4555,8 @@
       <c r="B114" t="s">
         <v>282</v>
       </c>
-      <c r="C114">
-        <v>455</v>
+      <c r="C114" t="s">
+        <v>667</v>
       </c>
       <c r="D114" t="s">
         <v>375</v>
@@ -4068,8 +4572,8 @@
       <c r="B115" t="s">
         <v>282</v>
       </c>
-      <c r="C115">
-        <v>599</v>
+      <c r="C115" t="s">
+        <v>640</v>
       </c>
       <c r="D115" t="s">
         <v>377</v>
@@ -4085,8 +4589,8 @@
       <c r="B116" t="s">
         <v>282</v>
       </c>
-      <c r="C116">
-        <v>743</v>
+      <c r="C116" t="s">
+        <v>668</v>
       </c>
       <c r="D116" t="s">
         <v>379</v>
@@ -4102,8 +4606,8 @@
       <c r="B117" t="s">
         <v>382</v>
       </c>
-      <c r="C117">
-        <v>539</v>
+      <c r="C117" t="s">
+        <v>639</v>
       </c>
       <c r="D117" t="s">
         <v>381</v>
@@ -4119,8 +4623,8 @@
       <c r="B118" t="s">
         <v>382</v>
       </c>
-      <c r="C118">
-        <v>347</v>
+      <c r="C118" t="s">
+        <v>669</v>
       </c>
       <c r="D118" t="s">
         <v>384</v>
@@ -4136,8 +4640,8 @@
       <c r="B119" t="s">
         <v>382</v>
       </c>
-      <c r="C119">
-        <v>539</v>
+      <c r="C119" t="s">
+        <v>639</v>
       </c>
       <c r="D119" t="s">
         <v>381</v>
@@ -4153,8 +4657,8 @@
       <c r="B120" t="s">
         <v>382</v>
       </c>
-      <c r="C120">
-        <v>395</v>
+      <c r="C120" t="s">
+        <v>670</v>
       </c>
       <c r="D120" t="s">
         <v>386</v>
@@ -4170,8 +4674,8 @@
       <c r="B121" t="s">
         <v>382</v>
       </c>
-      <c r="C121">
-        <v>347</v>
+      <c r="C121" t="s">
+        <v>669</v>
       </c>
       <c r="D121" t="s">
         <v>388</v>
@@ -4187,8 +4691,8 @@
       <c r="B122" t="s">
         <v>216</v>
       </c>
-      <c r="C122">
-        <v>650</v>
+      <c r="C122" t="s">
+        <v>643</v>
       </c>
       <c r="D122" t="s">
         <v>389</v>
@@ -4204,8 +4708,8 @@
       <c r="B123" t="s">
         <v>216</v>
       </c>
-      <c r="C123">
-        <v>650</v>
+      <c r="C123" t="s">
+        <v>643</v>
       </c>
       <c r="D123" t="s">
         <v>389</v>
@@ -4221,8 +4725,8 @@
       <c r="B124" t="s">
         <v>216</v>
       </c>
-      <c r="C124">
-        <v>650</v>
+      <c r="C124" t="s">
+        <v>643</v>
       </c>
       <c r="D124" t="s">
         <v>389</v>
@@ -4238,8 +4742,8 @@
       <c r="B125" t="s">
         <v>216</v>
       </c>
-      <c r="C125">
-        <v>650</v>
+      <c r="C125" t="s">
+        <v>643</v>
       </c>
       <c r="D125" t="s">
         <v>391</v>
@@ -4255,8 +4759,8 @@
       <c r="B126" t="s">
         <v>216</v>
       </c>
-      <c r="C126">
-        <v>650</v>
+      <c r="C126" t="s">
+        <v>643</v>
       </c>
       <c r="D126" t="s">
         <v>393</v>
@@ -4272,8 +4776,8 @@
       <c r="B127" t="s">
         <v>216</v>
       </c>
-      <c r="C127">
-        <v>550</v>
+      <c r="C127" t="s">
+        <v>671</v>
       </c>
       <c r="D127" t="s">
         <v>393</v>
@@ -4289,8 +4793,8 @@
       <c r="B128" t="s">
         <v>216</v>
       </c>
-      <c r="C128">
-        <v>550</v>
+      <c r="C128" t="s">
+        <v>671</v>
       </c>
       <c r="D128" t="s">
         <v>393</v>
@@ -4306,8 +4810,8 @@
       <c r="B129" t="s">
         <v>216</v>
       </c>
-      <c r="C129">
-        <v>550</v>
+      <c r="C129" t="s">
+        <v>671</v>
       </c>
       <c r="D129" t="s">
         <v>393</v>
@@ -4323,8 +4827,8 @@
       <c r="B130" t="s">
         <v>216</v>
       </c>
-      <c r="C130">
-        <v>650</v>
+      <c r="C130" t="s">
+        <v>643</v>
       </c>
       <c r="D130" t="s">
         <v>395</v>
@@ -4340,8 +4844,8 @@
       <c r="B131" t="s">
         <v>216</v>
       </c>
-      <c r="C131">
-        <v>550</v>
+      <c r="C131" t="s">
+        <v>671</v>
       </c>
       <c r="D131" t="s">
         <v>397</v>
@@ -4357,8 +4861,8 @@
       <c r="B132" t="s">
         <v>216</v>
       </c>
-      <c r="C132">
-        <v>550</v>
+      <c r="C132" t="s">
+        <v>671</v>
       </c>
       <c r="D132" t="s">
         <v>398</v>
@@ -4374,8 +4878,8 @@
       <c r="B133" t="s">
         <v>400</v>
       </c>
-      <c r="C133">
-        <v>500</v>
+      <c r="C133" t="s">
+        <v>629</v>
       </c>
       <c r="D133" t="s">
         <v>399</v>
@@ -4391,8 +4895,8 @@
       <c r="B134" t="s">
         <v>216</v>
       </c>
-      <c r="C134">
-        <v>650</v>
+      <c r="C134" t="s">
+        <v>643</v>
       </c>
       <c r="D134" t="s">
         <v>402</v>
@@ -4408,8 +4912,8 @@
       <c r="B135" t="s">
         <v>216</v>
       </c>
-      <c r="C135">
-        <v>650</v>
+      <c r="C135" t="s">
+        <v>643</v>
       </c>
       <c r="D135" t="s">
         <v>402</v>
@@ -4425,8 +4929,8 @@
       <c r="B136" t="s">
         <v>216</v>
       </c>
-      <c r="C136">
-        <v>650</v>
+      <c r="C136" t="s">
+        <v>643</v>
       </c>
       <c r="D136" t="s">
         <v>402</v>
@@ -4442,8 +4946,8 @@
       <c r="B137" t="s">
         <v>216</v>
       </c>
-      <c r="C137">
-        <v>650</v>
+      <c r="C137" t="s">
+        <v>643</v>
       </c>
       <c r="D137" t="s">
         <v>403</v>
@@ -4459,8 +4963,8 @@
       <c r="B138" t="s">
         <v>216</v>
       </c>
-      <c r="C138">
-        <v>650</v>
+      <c r="C138" t="s">
+        <v>643</v>
       </c>
       <c r="D138" t="s">
         <v>402</v>
@@ -4476,8 +4980,8 @@
       <c r="B139" t="s">
         <v>216</v>
       </c>
-      <c r="C139">
-        <v>650</v>
+      <c r="C139" t="s">
+        <v>643</v>
       </c>
       <c r="D139" t="s">
         <v>403</v>
@@ -4493,8 +4997,8 @@
       <c r="B140" t="s">
         <v>216</v>
       </c>
-      <c r="C140">
-        <v>650</v>
+      <c r="C140" t="s">
+        <v>643</v>
       </c>
       <c r="D140" t="s">
         <v>405</v>
@@ -4510,8 +5014,8 @@
       <c r="B141" t="s">
         <v>216</v>
       </c>
-      <c r="C141">
-        <v>650</v>
+      <c r="C141" t="s">
+        <v>643</v>
       </c>
       <c r="D141" t="s">
         <v>406</v>
@@ -4527,8 +5031,8 @@
       <c r="B142" t="s">
         <v>216</v>
       </c>
-      <c r="C142">
-        <v>550</v>
+      <c r="C142" t="s">
+        <v>671</v>
       </c>
       <c r="D142" t="s">
         <v>416</v>
@@ -4544,8 +5048,8 @@
       <c r="B143" t="s">
         <v>216</v>
       </c>
-      <c r="C143">
-        <v>650</v>
+      <c r="C143" t="s">
+        <v>643</v>
       </c>
       <c r="D143" t="s">
         <v>417</v>
@@ -4561,8 +5065,8 @@
       <c r="B144" t="s">
         <v>216</v>
       </c>
-      <c r="C144">
-        <v>650</v>
+      <c r="C144" t="s">
+        <v>643</v>
       </c>
       <c r="D144" t="s">
         <v>419</v>
@@ -4578,8 +5082,8 @@
       <c r="B145" t="s">
         <v>216</v>
       </c>
-      <c r="C145">
-        <v>650</v>
+      <c r="C145" t="s">
+        <v>643</v>
       </c>
       <c r="D145" t="s">
         <v>420</v>
@@ -4595,8 +5099,8 @@
       <c r="B146" t="s">
         <v>216</v>
       </c>
-      <c r="C146">
-        <v>650</v>
+      <c r="C146" t="s">
+        <v>643</v>
       </c>
       <c r="D146" t="s">
         <v>420</v>
@@ -4612,8 +5116,8 @@
       <c r="B147" t="s">
         <v>216</v>
       </c>
-      <c r="C147">
-        <v>900</v>
+      <c r="C147" t="s">
+        <v>672</v>
       </c>
       <c r="D147" t="s">
         <v>421</v>
@@ -4629,8 +5133,8 @@
       <c r="B148" t="s">
         <v>216</v>
       </c>
-      <c r="C148">
-        <v>650</v>
+      <c r="C148" t="s">
+        <v>643</v>
       </c>
       <c r="D148" t="s">
         <v>423</v>
@@ -4646,8 +5150,8 @@
       <c r="B149" t="s">
         <v>216</v>
       </c>
-      <c r="C149">
-        <v>650</v>
+      <c r="C149" t="s">
+        <v>643</v>
       </c>
       <c r="D149" t="s">
         <v>423</v>
@@ -4663,8 +5167,8 @@
       <c r="B150" t="s">
         <v>216</v>
       </c>
-      <c r="C150">
-        <v>900</v>
+      <c r="C150" t="s">
+        <v>672</v>
       </c>
       <c r="D150" t="s">
         <v>424</v>
@@ -4680,8 +5184,8 @@
       <c r="B151" t="s">
         <v>216</v>
       </c>
-      <c r="C151">
-        <v>650</v>
+      <c r="C151" t="s">
+        <v>643</v>
       </c>
       <c r="D151" t="s">
         <v>425</v>
@@ -4697,8 +5201,8 @@
       <c r="B152" t="s">
         <v>216</v>
       </c>
-      <c r="C152">
-        <v>550</v>
+      <c r="C152" t="s">
+        <v>671</v>
       </c>
       <c r="D152" t="s">
         <v>426</v>
@@ -4714,8 +5218,8 @@
       <c r="B153" t="s">
         <v>216</v>
       </c>
-      <c r="C153">
-        <v>650</v>
+      <c r="C153" t="s">
+        <v>643</v>
       </c>
       <c r="D153" t="s">
         <v>427</v>
@@ -4731,8 +5235,8 @@
       <c r="B154" t="s">
         <v>216</v>
       </c>
-      <c r="C154">
-        <v>650</v>
+      <c r="C154" t="s">
+        <v>643</v>
       </c>
       <c r="D154" t="s">
         <v>427</v>
@@ -4748,8 +5252,8 @@
       <c r="B155" t="s">
         <v>216</v>
       </c>
-      <c r="C155">
-        <v>650</v>
+      <c r="C155" t="s">
+        <v>643</v>
       </c>
       <c r="D155" t="s">
         <v>429</v>
@@ -4765,8 +5269,8 @@
       <c r="B156" t="s">
         <v>216</v>
       </c>
-      <c r="C156">
-        <v>900</v>
+      <c r="C156" t="s">
+        <v>672</v>
       </c>
       <c r="D156" t="s">
         <v>430</v>
@@ -4782,8 +5286,8 @@
       <c r="B157" t="s">
         <v>216</v>
       </c>
-      <c r="C157">
-        <v>650</v>
+      <c r="C157" t="s">
+        <v>643</v>
       </c>
       <c r="D157" t="s">
         <v>432</v>
@@ -4799,8 +5303,8 @@
       <c r="B158" t="s">
         <v>216</v>
       </c>
-      <c r="C158">
-        <v>900</v>
+      <c r="C158" t="s">
+        <v>672</v>
       </c>
       <c r="D158" t="s">
         <v>433</v>
@@ -4816,8 +5320,8 @@
       <c r="B159" t="s">
         <v>216</v>
       </c>
-      <c r="C159">
-        <v>900</v>
+      <c r="C159" t="s">
+        <v>672</v>
       </c>
       <c r="D159" t="s">
         <v>435</v>
@@ -4833,8 +5337,8 @@
       <c r="B160" t="s">
         <v>216</v>
       </c>
-      <c r="C160">
-        <v>900</v>
+      <c r="C160" t="s">
+        <v>672</v>
       </c>
       <c r="D160" t="s">
         <v>430</v>
@@ -4850,8 +5354,8 @@
       <c r="B161" t="s">
         <v>216</v>
       </c>
-      <c r="C161">
-        <v>900</v>
+      <c r="C161" t="s">
+        <v>672</v>
       </c>
       <c r="D161" t="s">
         <v>436</v>
@@ -4867,8 +5371,8 @@
       <c r="B162" t="s">
         <v>216</v>
       </c>
-      <c r="C162">
-        <v>900</v>
+      <c r="C162" t="s">
+        <v>672</v>
       </c>
       <c r="D162" t="s">
         <v>436</v>
@@ -4884,8 +5388,8 @@
       <c r="B163" t="s">
         <v>216</v>
       </c>
-      <c r="C163">
-        <v>900</v>
+      <c r="C163" t="s">
+        <v>672</v>
       </c>
       <c r="D163" t="s">
         <v>438</v>
@@ -4901,8 +5405,8 @@
       <c r="B164" t="s">
         <v>216</v>
       </c>
-      <c r="C164">
-        <v>650</v>
+      <c r="C164" t="s">
+        <v>643</v>
       </c>
       <c r="D164" t="s">
         <v>417</v>
@@ -4918,8 +5422,8 @@
       <c r="B165" t="s">
         <v>216</v>
       </c>
-      <c r="C165">
-        <v>900</v>
+      <c r="C165" t="s">
+        <v>672</v>
       </c>
       <c r="D165" t="s">
         <v>438</v>
@@ -4935,8 +5439,8 @@
       <c r="B166" t="s">
         <v>216</v>
       </c>
-      <c r="C166">
-        <v>900</v>
+      <c r="C166" t="s">
+        <v>672</v>
       </c>
       <c r="D166" t="s">
         <v>438</v>
@@ -4952,8 +5456,8 @@
       <c r="B167" t="s">
         <v>216</v>
       </c>
-      <c r="C167">
-        <v>900</v>
+      <c r="C167" t="s">
+        <v>672</v>
       </c>
       <c r="D167" t="s">
         <v>440</v>
@@ -4969,8 +5473,8 @@
       <c r="B168" t="s">
         <v>216</v>
       </c>
-      <c r="C168">
-        <v>650</v>
+      <c r="C168" t="s">
+        <v>643</v>
       </c>
       <c r="D168" t="s">
         <v>439</v>
@@ -4986,8 +5490,8 @@
       <c r="B169" t="s">
         <v>216</v>
       </c>
-      <c r="C169">
-        <v>900</v>
+      <c r="C169" t="s">
+        <v>672</v>
       </c>
       <c r="D169" t="s">
         <v>440</v>
@@ -5003,8 +5507,8 @@
       <c r="B170" t="s">
         <v>216</v>
       </c>
-      <c r="C170">
-        <v>650</v>
+      <c r="C170" t="s">
+        <v>643</v>
       </c>
       <c r="D170" t="s">
         <v>441</v>
@@ -5020,8 +5524,8 @@
       <c r="B171" t="s">
         <v>216</v>
       </c>
-      <c r="C171">
-        <v>900</v>
+      <c r="C171" t="s">
+        <v>672</v>
       </c>
       <c r="D171" t="s">
         <v>442</v>
@@ -5037,8 +5541,8 @@
       <c r="B172" t="s">
         <v>216</v>
       </c>
-      <c r="C172">
-        <v>550</v>
+      <c r="C172" t="s">
+        <v>671</v>
       </c>
       <c r="D172" t="s">
         <v>443</v>
@@ -5054,8 +5558,8 @@
       <c r="B173" t="s">
         <v>216</v>
       </c>
-      <c r="C173">
-        <v>650</v>
+      <c r="C173" t="s">
+        <v>643</v>
       </c>
       <c r="D173" t="s">
         <v>407</v>
@@ -5071,8 +5575,8 @@
       <c r="B174" t="s">
         <v>216</v>
       </c>
-      <c r="C174">
-        <v>650</v>
+      <c r="C174" t="s">
+        <v>643</v>
       </c>
       <c r="D174" t="s">
         <v>413</v>
@@ -5088,8 +5592,8 @@
       <c r="B175" t="s">
         <v>216</v>
       </c>
-      <c r="C175">
-        <v>650</v>
+      <c r="C175" t="s">
+        <v>643</v>
       </c>
       <c r="D175" t="s">
         <v>413</v>
@@ -5105,8 +5609,8 @@
       <c r="B176" t="s">
         <v>216</v>
       </c>
-      <c r="C176">
-        <v>650</v>
+      <c r="C176" t="s">
+        <v>643</v>
       </c>
       <c r="D176" t="s">
         <v>413</v>
@@ -5122,8 +5626,8 @@
       <c r="B177" t="s">
         <v>216</v>
       </c>
-      <c r="C177">
-        <v>900</v>
+      <c r="C177" t="s">
+        <v>672</v>
       </c>
       <c r="D177" t="s">
         <v>411</v>
@@ -5139,8 +5643,8 @@
       <c r="B178" t="s">
         <v>216</v>
       </c>
-      <c r="C178">
-        <v>650</v>
+      <c r="C178" t="s">
+        <v>643</v>
       </c>
       <c r="D178" t="s">
         <v>407</v>
@@ -5156,8 +5660,8 @@
       <c r="B179" t="s">
         <v>216</v>
       </c>
-      <c r="C179">
-        <v>650</v>
+      <c r="C179" t="s">
+        <v>643</v>
       </c>
       <c r="D179" t="s">
         <v>407</v>
@@ -5173,8 +5677,8 @@
       <c r="B180" t="s">
         <v>216</v>
       </c>
-      <c r="C180">
-        <v>650</v>
+      <c r="C180" t="s">
+        <v>643</v>
       </c>
       <c r="D180" t="s">
         <v>410</v>
@@ -5190,8 +5694,8 @@
       <c r="B181" t="s">
         <v>409</v>
       </c>
-      <c r="C181">
-        <v>650</v>
+      <c r="C181" t="s">
+        <v>643</v>
       </c>
       <c r="D181" t="s">
         <v>408</v>
@@ -5207,8 +5711,8 @@
       <c r="B182" t="s">
         <v>216</v>
       </c>
-      <c r="C182">
-        <v>650</v>
+      <c r="C182" t="s">
+        <v>643</v>
       </c>
       <c r="D182" t="s">
         <v>407</v>
@@ -5224,8 +5728,8 @@
       <c r="B183" t="s">
         <v>216</v>
       </c>
-      <c r="C183">
-        <v>650</v>
+      <c r="C183" t="s">
+        <v>643</v>
       </c>
       <c r="D183" t="s">
         <v>407</v>
@@ -5241,8 +5745,8 @@
       <c r="B184" t="s">
         <v>227</v>
       </c>
-      <c r="C184">
-        <v>475</v>
+      <c r="C184" t="s">
+        <v>673</v>
       </c>
       <c r="D184" t="s">
         <v>488</v>
@@ -5258,8 +5762,8 @@
       <c r="B185" t="s">
         <v>227</v>
       </c>
-      <c r="C185">
-        <v>475</v>
+      <c r="C185" t="s">
+        <v>673</v>
       </c>
       <c r="D185" t="s">
         <v>488</v>
@@ -5275,8 +5779,8 @@
       <c r="B186" t="s">
         <v>492</v>
       </c>
-      <c r="C186">
-        <v>600</v>
+      <c r="C186" t="s">
+        <v>674</v>
       </c>
       <c r="D186" t="s">
         <v>490</v>
@@ -5292,8 +5796,8 @@
       <c r="B187" t="s">
         <v>492</v>
       </c>
-      <c r="C187">
-        <v>650</v>
+      <c r="C187" t="s">
+        <v>643</v>
       </c>
       <c r="D187" t="s">
         <v>493</v>
@@ -5309,8 +5813,8 @@
       <c r="B188" t="s">
         <v>494</v>
       </c>
-      <c r="C188">
-        <v>1250</v>
+      <c r="C188" t="s">
+        <v>675</v>
       </c>
       <c r="D188" t="s">
         <v>495</v>
@@ -5326,8 +5830,8 @@
       <c r="B189" t="s">
         <v>494</v>
       </c>
-      <c r="C189">
-        <v>1450</v>
+      <c r="C189" t="s">
+        <v>676</v>
       </c>
       <c r="D189" t="s">
         <v>497</v>
@@ -5343,8 +5847,8 @@
       <c r="B190" t="s">
         <v>227</v>
       </c>
-      <c r="C190">
-        <v>1100</v>
+      <c r="C190" t="s">
+        <v>677</v>
       </c>
       <c r="D190" t="s">
         <v>499</v>
@@ -5360,8 +5864,8 @@
       <c r="B191" t="s">
         <v>227</v>
       </c>
-      <c r="C191">
-        <v>1250</v>
+      <c r="C191" t="s">
+        <v>675</v>
       </c>
       <c r="D191" t="s">
         <v>501</v>
@@ -5377,8 +5881,8 @@
       <c r="B192" t="s">
         <v>504</v>
       </c>
-      <c r="C192">
-        <v>1795</v>
+      <c r="C192" t="s">
+        <v>678</v>
       </c>
       <c r="D192" t="s">
         <v>503</v>
@@ -5394,8 +5898,8 @@
       <c r="B193" t="s">
         <v>504</v>
       </c>
-      <c r="C193">
-        <v>1795</v>
+      <c r="C193" t="s">
+        <v>678</v>
       </c>
       <c r="D193" t="s">
         <v>506</v>
@@ -5411,8 +5915,8 @@
       <c r="B194" t="s">
         <v>504</v>
       </c>
-      <c r="C194">
-        <v>1795</v>
+      <c r="C194" t="s">
+        <v>678</v>
       </c>
       <c r="D194" t="s">
         <v>508</v>
@@ -5428,8 +5932,8 @@
       <c r="B195" t="s">
         <v>494</v>
       </c>
-      <c r="C195">
-        <v>1450</v>
+      <c r="C195" t="s">
+        <v>676</v>
       </c>
       <c r="D195" t="s">
         <v>510</v>
@@ -5445,8 +5949,8 @@
       <c r="B196" t="s">
         <v>494</v>
       </c>
-      <c r="C196">
-        <v>1250</v>
+      <c r="C196" t="s">
+        <v>675</v>
       </c>
       <c r="D196" t="s">
         <v>512</v>
@@ -5462,8 +5966,8 @@
       <c r="B197" t="s">
         <v>355</v>
       </c>
-      <c r="C197">
-        <v>600</v>
+      <c r="C197" t="s">
+        <v>674</v>
       </c>
       <c r="D197" t="s">
         <v>514</v>
@@ -5479,8 +5983,8 @@
       <c r="B198" t="s">
         <v>492</v>
       </c>
-      <c r="C198">
-        <v>495</v>
+      <c r="C198" t="s">
+        <v>679</v>
       </c>
       <c r="D198" t="s">
         <v>520</v>
@@ -5496,8 +6000,8 @@
       <c r="B199" t="s">
         <v>492</v>
       </c>
-      <c r="C199">
-        <v>480</v>
+      <c r="C199" t="s">
+        <v>680</v>
       </c>
       <c r="D199" t="s">
         <v>516</v>
@@ -5513,8 +6017,8 @@
       <c r="B200" t="s">
         <v>492</v>
       </c>
-      <c r="C200">
-        <v>500</v>
+      <c r="C200" t="s">
+        <v>629</v>
       </c>
       <c r="D200" t="s">
         <v>518</v>
@@ -5530,8 +6034,8 @@
       <c r="B201" t="s">
         <v>492</v>
       </c>
-      <c r="C201">
-        <v>450</v>
+      <c r="C201" t="s">
+        <v>664</v>
       </c>
       <c r="D201" t="s">
         <v>521</v>
@@ -5547,8 +6051,8 @@
       <c r="B202" t="s">
         <v>492</v>
       </c>
-      <c r="C202">
-        <v>480</v>
+      <c r="C202" t="s">
+        <v>680</v>
       </c>
       <c r="D202" t="s">
         <v>522</v>
@@ -5564,8 +6068,8 @@
       <c r="B203" t="s">
         <v>492</v>
       </c>
-      <c r="C203">
-        <v>600</v>
+      <c r="C203" t="s">
+        <v>674</v>
       </c>
       <c r="D203" t="s">
         <v>526</v>
@@ -5581,8 +6085,8 @@
       <c r="B204" t="s">
         <v>492</v>
       </c>
-      <c r="C204">
-        <v>450</v>
+      <c r="C204" t="s">
+        <v>664</v>
       </c>
       <c r="D204" t="s">
         <v>528</v>
@@ -5598,8 +6102,8 @@
       <c r="B205" t="s">
         <v>494</v>
       </c>
-      <c r="C205">
-        <v>1200</v>
+      <c r="C205" t="s">
+        <v>681</v>
       </c>
       <c r="D205" t="s">
         <v>530</v>
@@ -5615,8 +6119,8 @@
       <c r="B206" t="s">
         <v>533</v>
       </c>
-      <c r="C206">
-        <v>930</v>
+      <c r="C206" t="s">
+        <v>682</v>
       </c>
       <c r="D206" t="s">
         <v>532</v>
@@ -5632,8 +6136,8 @@
       <c r="B207" t="s">
         <v>533</v>
       </c>
-      <c r="C207">
-        <v>840</v>
+      <c r="C207" t="s">
+        <v>683</v>
       </c>
       <c r="D207" t="s">
         <v>535</v>
@@ -5649,8 +6153,8 @@
       <c r="B208" t="s">
         <v>504</v>
       </c>
-      <c r="C208">
-        <v>1290</v>
+      <c r="C208" t="s">
+        <v>684</v>
       </c>
       <c r="D208" t="s">
         <v>537</v>
@@ -5666,8 +6170,8 @@
       <c r="B209" t="s">
         <v>504</v>
       </c>
-      <c r="C209">
-        <v>1490</v>
+      <c r="C209" t="s">
+        <v>685</v>
       </c>
       <c r="D209" t="s">
         <v>539</v>
@@ -5683,8 +6187,8 @@
       <c r="B210" t="s">
         <v>504</v>
       </c>
-      <c r="C210">
-        <v>1050</v>
+      <c r="C210" t="s">
+        <v>686</v>
       </c>
       <c r="D210" t="s">
         <v>541</v>
@@ -5700,8 +6204,8 @@
       <c r="B211" t="s">
         <v>533</v>
       </c>
-      <c r="C211">
-        <v>995</v>
+      <c r="C211" t="s">
+        <v>687</v>
       </c>
       <c r="D211" t="s">
         <v>543</v>
@@ -5717,8 +6221,8 @@
       <c r="B212" t="s">
         <v>533</v>
       </c>
-      <c r="C212">
-        <v>930</v>
+      <c r="C212" t="s">
+        <v>682</v>
       </c>
       <c r="D212" t="s">
         <v>545</v>
@@ -5734,8 +6238,8 @@
       <c r="B213" t="s">
         <v>533</v>
       </c>
-      <c r="C213">
-        <v>935</v>
+      <c r="C213" t="s">
+        <v>688</v>
       </c>
       <c r="D213" t="s">
         <v>547</v>
@@ -5751,8 +6255,8 @@
       <c r="B214" t="s">
         <v>533</v>
       </c>
-      <c r="C214">
-        <v>670</v>
+      <c r="C214" t="s">
+        <v>689</v>
       </c>
       <c r="D214" t="s">
         <v>549</v>
@@ -5768,8 +6272,8 @@
       <c r="B215" t="s">
         <v>533</v>
       </c>
-      <c r="C215">
-        <v>900</v>
+      <c r="C215" t="s">
+        <v>672</v>
       </c>
       <c r="D215" t="s">
         <v>551</v>
@@ -5785,8 +6289,8 @@
       <c r="B216" t="s">
         <v>533</v>
       </c>
-      <c r="C216">
-        <v>670</v>
+      <c r="C216" t="s">
+        <v>689</v>
       </c>
       <c r="D216" t="s">
         <v>552</v>
@@ -5802,8 +6306,8 @@
       <c r="B217" t="s">
         <v>533</v>
       </c>
-      <c r="C217">
-        <v>995</v>
+      <c r="C217" t="s">
+        <v>687</v>
       </c>
       <c r="D217" t="s">
         <v>553</v>
@@ -5819,8 +6323,8 @@
       <c r="B218" t="s">
         <v>533</v>
       </c>
-      <c r="C218">
-        <v>617</v>
+      <c r="C218" t="s">
+        <v>650</v>
       </c>
       <c r="D218" t="s">
         <v>555</v>
@@ -5836,8 +6340,8 @@
       <c r="B219" t="s">
         <v>504</v>
       </c>
-      <c r="C219">
-        <v>1637</v>
+      <c r="C219" t="s">
+        <v>690</v>
       </c>
       <c r="D219" t="s">
         <v>557</v>
@@ -5853,8 +6357,8 @@
       <c r="B220" t="s">
         <v>504</v>
       </c>
-      <c r="C220">
-        <v>1637</v>
+      <c r="C220" t="s">
+        <v>690</v>
       </c>
       <c r="D220" t="s">
         <v>559</v>
@@ -5870,8 +6374,8 @@
       <c r="B221" t="s">
         <v>282</v>
       </c>
-      <c r="C221">
-        <v>575</v>
+      <c r="C221" t="s">
+        <v>648</v>
       </c>
       <c r="D221" t="s">
         <v>561</v>
@@ -5887,8 +6391,8 @@
       <c r="B222" t="s">
         <v>230</v>
       </c>
-      <c r="C222">
-        <v>659</v>
+      <c r="C222" t="s">
+        <v>611</v>
       </c>
       <c r="D222" t="s">
         <v>562</v>
@@ -5904,8 +6408,8 @@
       <c r="B223" t="s">
         <v>492</v>
       </c>
-      <c r="C223">
-        <v>750</v>
+      <c r="C223" t="s">
+        <v>642</v>
       </c>
       <c r="D223" t="s">
         <v>564</v>
@@ -5921,8 +6425,8 @@
       <c r="B224" t="s">
         <v>492</v>
       </c>
-      <c r="C224">
-        <v>750</v>
+      <c r="C224" t="s">
+        <v>642</v>
       </c>
       <c r="D224" t="s">
         <v>564</v>
@@ -5938,8 +6442,8 @@
       <c r="B225" t="s">
         <v>492</v>
       </c>
-      <c r="C225">
-        <v>650</v>
+      <c r="C225" t="s">
+        <v>643</v>
       </c>
       <c r="D225" t="s">
         <v>564</v>
@@ -5955,8 +6459,8 @@
       <c r="B226" t="s">
         <v>504</v>
       </c>
-      <c r="C226">
-        <v>1050</v>
+      <c r="C226" t="s">
+        <v>686</v>
       </c>
       <c r="D226" t="s">
         <v>565</v>
@@ -5972,14 +6476,898 @@
       <c r="B227" t="s">
         <v>504</v>
       </c>
-      <c r="C227">
-        <v>1290</v>
+      <c r="C227" t="s">
+        <v>684</v>
       </c>
       <c r="D227" t="s">
         <v>566</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>487</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>259</v>
+      </c>
+      <c r="B228" t="s">
+        <v>355</v>
+      </c>
+      <c r="C228" t="s">
+        <v>652</v>
+      </c>
+      <c r="D228" t="s">
+        <v>568</v>
+      </c>
+      <c r="E228" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>259</v>
+      </c>
+      <c r="B229" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229" t="s">
+        <v>629</v>
+      </c>
+      <c r="D229" t="s">
+        <v>570</v>
+      </c>
+      <c r="E229" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>259</v>
+      </c>
+      <c r="B230" t="s">
+        <v>230</v>
+      </c>
+      <c r="C230" t="s">
+        <v>691</v>
+      </c>
+      <c r="D230" t="s">
+        <v>572</v>
+      </c>
+      <c r="E230" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>259</v>
+      </c>
+      <c r="B231" t="s">
+        <v>230</v>
+      </c>
+      <c r="C231" t="s">
+        <v>615</v>
+      </c>
+      <c r="D231" t="s">
+        <v>574</v>
+      </c>
+      <c r="E231" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>259</v>
+      </c>
+      <c r="B232" t="s">
+        <v>230</v>
+      </c>
+      <c r="C232" t="s">
+        <v>671</v>
+      </c>
+      <c r="D232" t="s">
+        <v>576</v>
+      </c>
+      <c r="E232" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>259</v>
+      </c>
+      <c r="B233" t="s">
+        <v>230</v>
+      </c>
+      <c r="C233" t="s">
+        <v>629</v>
+      </c>
+      <c r="D233" t="s">
+        <v>578</v>
+      </c>
+      <c r="E233" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>606</v>
+      </c>
+      <c r="B234" t="s">
+        <v>216</v>
+      </c>
+      <c r="C234" t="s">
+        <v>643</v>
+      </c>
+      <c r="D234" t="s">
+        <v>580</v>
+      </c>
+      <c r="E234" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>606</v>
+      </c>
+      <c r="B235" t="s">
+        <v>216</v>
+      </c>
+      <c r="C235" t="s">
+        <v>643</v>
+      </c>
+      <c r="D235" t="s">
+        <v>582</v>
+      </c>
+      <c r="E235" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>259</v>
+      </c>
+      <c r="B236" t="s">
+        <v>355</v>
+      </c>
+      <c r="C236" t="s">
+        <v>692</v>
+      </c>
+      <c r="D236" t="s">
+        <v>584</v>
+      </c>
+      <c r="E236" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>259</v>
+      </c>
+      <c r="B237" t="s">
+        <v>355</v>
+      </c>
+      <c r="C237" t="s">
+        <v>682</v>
+      </c>
+      <c r="D237" t="s">
+        <v>586</v>
+      </c>
+      <c r="E237" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>259</v>
+      </c>
+      <c r="B238" t="s">
+        <v>355</v>
+      </c>
+      <c r="C238" t="s">
+        <v>693</v>
+      </c>
+      <c r="D238" t="s">
+        <v>588</v>
+      </c>
+      <c r="E238" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>259</v>
+      </c>
+      <c r="B239" t="s">
+        <v>355</v>
+      </c>
+      <c r="C239" t="s">
+        <v>694</v>
+      </c>
+      <c r="D239" t="s">
+        <v>590</v>
+      </c>
+      <c r="E239" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>259</v>
+      </c>
+      <c r="B240" t="s">
+        <v>382</v>
+      </c>
+      <c r="C240" t="s">
+        <v>694</v>
+      </c>
+      <c r="D240" t="s">
+        <v>592</v>
+      </c>
+      <c r="E240" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>259</v>
+      </c>
+      <c r="B241" t="s">
+        <v>382</v>
+      </c>
+      <c r="C241" t="s">
+        <v>695</v>
+      </c>
+      <c r="D241" t="s">
+        <v>592</v>
+      </c>
+      <c r="E241" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>259</v>
+      </c>
+      <c r="B242" t="s">
+        <v>382</v>
+      </c>
+      <c r="C242" t="s">
+        <v>695</v>
+      </c>
+      <c r="D242" t="s">
+        <v>592</v>
+      </c>
+      <c r="E242" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>607</v>
+      </c>
+      <c r="B243" t="s">
+        <v>227</v>
+      </c>
+      <c r="C243" t="s">
+        <v>696</v>
+      </c>
+      <c r="D243" t="s">
+        <v>596</v>
+      </c>
+      <c r="E243" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>607</v>
+      </c>
+      <c r="B244" t="s">
+        <v>227</v>
+      </c>
+      <c r="C244" t="s">
+        <v>696</v>
+      </c>
+      <c r="D244" t="s">
+        <v>596</v>
+      </c>
+      <c r="E244" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>607</v>
+      </c>
+      <c r="B245" t="s">
+        <v>227</v>
+      </c>
+      <c r="C245" t="s">
+        <v>696</v>
+      </c>
+      <c r="D245" t="s">
+        <v>596</v>
+      </c>
+      <c r="E245" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>607</v>
+      </c>
+      <c r="B246" t="s">
+        <v>227</v>
+      </c>
+      <c r="C246" t="s">
+        <v>696</v>
+      </c>
+      <c r="D246" t="s">
+        <v>596</v>
+      </c>
+      <c r="E246" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>607</v>
+      </c>
+      <c r="B247" t="s">
+        <v>227</v>
+      </c>
+      <c r="C247" t="s">
+        <v>696</v>
+      </c>
+      <c r="D247" t="s">
+        <v>596</v>
+      </c>
+      <c r="E247" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>607</v>
+      </c>
+      <c r="B248" t="s">
+        <v>227</v>
+      </c>
+      <c r="C248" t="s">
+        <v>696</v>
+      </c>
+      <c r="D248" t="s">
+        <v>596</v>
+      </c>
+      <c r="E248" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>607</v>
+      </c>
+      <c r="B249" t="s">
+        <v>227</v>
+      </c>
+      <c r="C249" t="s">
+        <v>696</v>
+      </c>
+      <c r="D249" t="s">
+        <v>596</v>
+      </c>
+      <c r="E249" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>259</v>
+      </c>
+      <c r="B250" t="s">
+        <v>355</v>
+      </c>
+      <c r="C250" t="s">
+        <v>697</v>
+      </c>
+      <c r="D250" t="s">
+        <v>604</v>
+      </c>
+      <c r="E250" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>715</v>
+      </c>
+      <c r="B251" t="s">
+        <v>504</v>
+      </c>
+      <c r="C251" t="s">
+        <v>642</v>
+      </c>
+      <c r="D251" t="s">
+        <v>714</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>715</v>
+      </c>
+      <c r="B252" t="s">
+        <v>504</v>
+      </c>
+      <c r="C252" t="s">
+        <v>642</v>
+      </c>
+      <c r="D252" t="s">
+        <v>714</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>715</v>
+      </c>
+      <c r="B253" t="s">
+        <v>504</v>
+      </c>
+      <c r="C253" t="s">
+        <v>642</v>
+      </c>
+      <c r="D253" t="s">
+        <v>714</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>715</v>
+      </c>
+      <c r="B254" t="s">
+        <v>504</v>
+      </c>
+      <c r="C254" t="s">
+        <v>642</v>
+      </c>
+      <c r="D254" t="s">
+        <v>714</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>715</v>
+      </c>
+      <c r="B255" t="s">
+        <v>504</v>
+      </c>
+      <c r="C255" t="s">
+        <v>642</v>
+      </c>
+      <c r="D255" t="s">
+        <v>714</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>716</v>
+      </c>
+      <c r="B256" t="s">
+        <v>492</v>
+      </c>
+      <c r="C256" t="s">
+        <v>619</v>
+      </c>
+      <c r="D256" t="s">
+        <v>717</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>716</v>
+      </c>
+      <c r="B257" t="s">
+        <v>492</v>
+      </c>
+      <c r="C257" t="s">
+        <v>642</v>
+      </c>
+      <c r="D257" t="s">
+        <v>716</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>716</v>
+      </c>
+      <c r="B258" t="s">
+        <v>492</v>
+      </c>
+      <c r="C258" t="s">
+        <v>642</v>
+      </c>
+      <c r="D258" t="s">
+        <v>716</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>716</v>
+      </c>
+      <c r="B259" t="s">
+        <v>492</v>
+      </c>
+      <c r="C259" t="s">
+        <v>619</v>
+      </c>
+      <c r="D259" t="s">
+        <v>716</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>716</v>
+      </c>
+      <c r="B260" t="s">
+        <v>492</v>
+      </c>
+      <c r="C260" t="s">
+        <v>618</v>
+      </c>
+      <c r="D260" t="s">
+        <v>716</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>716</v>
+      </c>
+      <c r="B261" t="s">
+        <v>492</v>
+      </c>
+      <c r="C261" t="s">
+        <v>618</v>
+      </c>
+      <c r="D261" t="s">
+        <v>716</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>716</v>
+      </c>
+      <c r="B262" t="s">
+        <v>492</v>
+      </c>
+      <c r="C262" t="s">
+        <v>619</v>
+      </c>
+      <c r="D262" t="s">
+        <v>716</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>716</v>
+      </c>
+      <c r="B263" t="s">
+        <v>492</v>
+      </c>
+      <c r="C263" t="s">
+        <v>676</v>
+      </c>
+      <c r="D263" t="s">
+        <v>718</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>716</v>
+      </c>
+      <c r="B264" t="s">
+        <v>492</v>
+      </c>
+      <c r="C264" t="s">
+        <v>676</v>
+      </c>
+      <c r="D264" t="s">
+        <v>718</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>716</v>
+      </c>
+      <c r="B265" t="s">
+        <v>492</v>
+      </c>
+      <c r="C265" t="s">
+        <v>676</v>
+      </c>
+      <c r="D265" t="s">
+        <v>719</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>716</v>
+      </c>
+      <c r="B266" t="s">
+        <v>492</v>
+      </c>
+      <c r="C266" t="s">
+        <v>676</v>
+      </c>
+      <c r="D266" t="s">
+        <v>718</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>734</v>
+      </c>
+      <c r="B267" t="s">
+        <v>492</v>
+      </c>
+      <c r="C267" t="s">
+        <v>643</v>
+      </c>
+      <c r="D267" t="s">
+        <v>733</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>734</v>
+      </c>
+      <c r="B268" t="s">
+        <v>492</v>
+      </c>
+      <c r="C268" t="s">
+        <v>643</v>
+      </c>
+      <c r="D268" t="s">
+        <v>733</v>
+      </c>
+      <c r="E268" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>734</v>
+      </c>
+      <c r="B269" t="s">
+        <v>492</v>
+      </c>
+      <c r="C269" t="s">
+        <v>643</v>
+      </c>
+      <c r="D269" t="s">
+        <v>733</v>
+      </c>
+      <c r="E269" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>734</v>
+      </c>
+      <c r="B270" t="s">
+        <v>492</v>
+      </c>
+      <c r="C270" t="s">
+        <v>643</v>
+      </c>
+      <c r="D270" t="s">
+        <v>733</v>
+      </c>
+      <c r="E270" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>734</v>
+      </c>
+      <c r="B271" t="s">
+        <v>492</v>
+      </c>
+      <c r="C271" t="s">
+        <v>643</v>
+      </c>
+      <c r="D271" t="s">
+        <v>733</v>
+      </c>
+      <c r="E271" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>734</v>
+      </c>
+      <c r="B272" t="s">
+        <v>492</v>
+      </c>
+      <c r="C272" t="s">
+        <v>643</v>
+      </c>
+      <c r="D272" t="s">
+        <v>733</v>
+      </c>
+      <c r="E272" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>734</v>
+      </c>
+      <c r="B273" t="s">
+        <v>492</v>
+      </c>
+      <c r="C273" t="s">
+        <v>643</v>
+      </c>
+      <c r="D273" t="s">
+        <v>733</v>
+      </c>
+      <c r="E273" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>734</v>
+      </c>
+      <c r="B274" t="s">
+        <v>492</v>
+      </c>
+      <c r="C274" t="s">
+        <v>643</v>
+      </c>
+      <c r="D274" t="s">
+        <v>733</v>
+      </c>
+      <c r="E274" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>734</v>
+      </c>
+      <c r="B275" t="s">
+        <v>492</v>
+      </c>
+      <c r="C275" t="s">
+        <v>643</v>
+      </c>
+      <c r="D275" t="s">
+        <v>733</v>
+      </c>
+      <c r="E275" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>734</v>
+      </c>
+      <c r="B276" t="s">
+        <v>492</v>
+      </c>
+      <c r="C276" t="s">
+        <v>643</v>
+      </c>
+      <c r="D276" t="s">
+        <v>733</v>
+      </c>
+      <c r="E276" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>735</v>
+      </c>
+      <c r="B277" t="s">
+        <v>492</v>
+      </c>
+      <c r="C277" t="s">
+        <v>643</v>
+      </c>
+      <c r="D277" t="s">
+        <v>733</v>
+      </c>
+      <c r="E277" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>734</v>
+      </c>
+      <c r="B278" t="s">
+        <v>492</v>
+      </c>
+      <c r="C278" t="s">
+        <v>643</v>
+      </c>
+      <c r="D278" t="s">
+        <v>733</v>
+      </c>
+      <c r="E278" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>734</v>
+      </c>
+      <c r="B279" t="s">
+        <v>492</v>
+      </c>
+      <c r="C279" t="s">
+        <v>643</v>
+      </c>
+      <c r="D279" t="s">
+        <v>733</v>
+      </c>
+      <c r="E279" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -6209,7 +7597,25 @@
     <hyperlink ref="E225" r:id="rId223" xr:uid="{9A918059-1586-4893-934D-5C358D25B255}"/>
     <hyperlink ref="E226" r:id="rId224" xr:uid="{6D83A45D-8F68-4446-AF65-0DF88C90B47B}"/>
     <hyperlink ref="E227" r:id="rId225" xr:uid="{ADFA53AD-A727-42B2-8F99-8F3606050D17}"/>
+    <hyperlink ref="E251" r:id="rId226" xr:uid="{76C31F47-3242-4325-9CE4-8B5114AFE836}"/>
+    <hyperlink ref="E252" r:id="rId227" xr:uid="{736418E6-7B28-4078-BD38-C366CCEF2833}"/>
+    <hyperlink ref="E253" r:id="rId228" xr:uid="{1A8B59AA-9C4D-496A-8867-0DC22FC98DA9}"/>
+    <hyperlink ref="E254" r:id="rId229" xr:uid="{F1D5ABA5-E1F2-432C-BD00-98913A18FAB3}"/>
+    <hyperlink ref="E255" r:id="rId230" xr:uid="{8D32309D-01D4-415C-A97B-B3C3BE2E363F}"/>
+    <hyperlink ref="E256" r:id="rId231" xr:uid="{6869D0A6-6EF8-45A0-92B6-57D561CB4B9C}"/>
+    <hyperlink ref="E257" r:id="rId232" xr:uid="{80E1EAF5-BCBE-43AA-BCB1-6995F5DD5E82}"/>
+    <hyperlink ref="E258" r:id="rId233" xr:uid="{46B6DC8B-9720-4BA4-BD9C-BE0D565473CD}"/>
+    <hyperlink ref="E259" r:id="rId234" xr:uid="{245E067A-540D-436F-9E25-321B23771956}"/>
+    <hyperlink ref="E260" r:id="rId235" xr:uid="{B5CEDEDB-4BC6-4A2C-A925-D1B145C44683}"/>
+    <hyperlink ref="E261" r:id="rId236" xr:uid="{0291A192-0C81-4B23-BE70-C0AD03A32597}"/>
+    <hyperlink ref="E262" r:id="rId237" xr:uid="{4AF6AF06-9A42-4DE8-AD4E-6C041EC20DD5}"/>
+    <hyperlink ref="E264" r:id="rId238" xr:uid="{109AE0B8-57A4-4931-8BBF-47EBDFB63C01}"/>
+    <hyperlink ref="E265" r:id="rId239" xr:uid="{3CED7BFD-3E7A-4F4D-85DF-50385A7AE207}"/>
+    <hyperlink ref="E266" r:id="rId240" xr:uid="{82712A9C-9286-41DB-A0F7-B8A592346725}"/>
+    <hyperlink ref="E263" r:id="rId241" xr:uid="{CACBFFC3-4042-4C5C-8C83-5911A39D97F1}"/>
+    <hyperlink ref="E267" r:id="rId242" xr:uid="{714DC063-8688-40AD-8D42-5A26F34CB930}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId243"/>
 </worksheet>
 </file>
--- a/l_products.xlsx
+++ b/l_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01 USERS\SIMAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2A8B47-04C8-44F2-97CB-1FF19425DFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CB11F2-5F66-463B-860F-ABD6E2BCB0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{515ADE29-0589-42A5-8948-64F4F872024C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="735">
   <si>
     <t>Name</t>
   </si>
@@ -2240,9 +2240,6 @@
   </si>
   <si>
     <t>ZIGMA</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2616,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE43F56-F1DF-4EC8-BFCF-B9051A250447}">
   <dimension ref="A1:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="F253" sqref="F253"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7321,7 +7318,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B277" t="s">
         <v>492</v>
